--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业财务费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业财务费用.xlsx
@@ -2234,7 +2234,7 @@
         <v>-14.33</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7399999999999998</v>
+        <v>0.5799999999999979</v>
       </c>
       <c r="I4" t="n">
         <v>4.32</v>
@@ -2270,7 +2270,7 @@
         <v>-11.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.57</v>
+        <v>0.4399999999999986</v>
       </c>
       <c r="U4" t="n">
         <v>10.06</v>
@@ -2288,7 +2288,7 @@
         <v>2.21</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AA4" t="n">
         <v>3.75</v>
@@ -2342,7 +2342,7 @@
         <v>4.28</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.52</v>
+        <v>2.560000000000005</v>
       </c>
       <c r="AS4" t="n">
         <v>18.64</v>
@@ -2360,7 +2360,7 @@
         <v>-2.98</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.839999999999999</v>
+        <v>0.879999999999999</v>
       </c>
       <c r="AY4" t="n">
         <v>8.140000000000001</v>
@@ -2387,7 +2387,7 @@
         <v>0.47</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2700000000000009</v>
+        <v>3.969047313034935e-15</v>
       </c>
       <c r="BH4" t="n">
         <v>6.44</v>
@@ -2405,7 +2405,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="BN4" t="n">
         <v>0.84</v>
@@ -2441,7 +2441,7 @@
         <v>-0.29</v>
       </c>
       <c r="BY4" t="n">
-        <v>6.560000000000002</v>
+        <v>5.400000000000014</v>
       </c>
       <c r="BZ4" t="n">
         <v>24.17</v>
@@ -2477,7 +2477,7 @@
         <v>-23.91</v>
       </c>
       <c r="CK4" t="n">
-        <v>9.340000000000003</v>
+        <v>7.460000000000008</v>
       </c>
       <c r="CL4" t="n">
         <v>32.78</v>
@@ -2558,7 +2558,7 @@
         <v>0.91</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.0199999999999978</v>
       </c>
       <c r="DM4" t="n">
         <v>40.64</v>
@@ -2748,7 +2748,7 @@
         <v>21.03</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.73</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="R5" t="n">
         <v>57.08</v>
@@ -2757,7 +2757,7 @@
         <v>-12.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.239999999999998</v>
+        <v>0.379999999999999</v>
       </c>
       <c r="U5" t="n">
         <v>12.45</v>
@@ -2766,7 +2766,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="W5" t="n">
-        <v>3.189999999999998</v>
+        <v>2.269999999999994</v>
       </c>
       <c r="X5" t="n">
         <v>18.47</v>
@@ -2784,7 +2784,7 @@
         <v>-1.59</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5799999999999979</v>
+        <v>0.2899999999999964</v>
       </c>
       <c r="AD5" t="n">
         <v>12.32</v>
@@ -2793,7 +2793,7 @@
         <v>3.72</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.01000000000000013</v>
       </c>
       <c r="AG5" t="n">
         <v>2.15</v>
@@ -2802,7 +2802,7 @@
         <v>14.3</v>
       </c>
       <c r="AI5" t="n">
-        <v>17.4200000000001</v>
+        <v>2.340000000000405</v>
       </c>
       <c r="AJ5" t="n">
         <v>764.0599999999999</v>
@@ -2820,7 +2820,7 @@
         <v>16.57</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.430000000000003</v>
+        <v>0.4700000000000097</v>
       </c>
       <c r="AP5" t="n">
         <v>27.82</v>
@@ -2838,7 +2838,7 @@
         <v>-31.28</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.04000000000000184</v>
       </c>
       <c r="AV5" t="n">
         <v>4.1</v>
@@ -2865,7 +2865,7 @@
         <v>-1.11</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.01000000000000029</v>
       </c>
       <c r="BE5" t="n">
         <v>1.89</v>
@@ -2874,7 +2874,7 @@
         <v>0.77</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.790000000000001</v>
+        <v>1.249999999999991</v>
       </c>
       <c r="BH5" t="n">
         <v>8.4</v>
@@ -2892,7 +2892,7 @@
         <v>-5.77</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.12</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="BN5" t="n">
         <v>1.05</v>
@@ -2910,7 +2910,7 @@
         <v>12.15</v>
       </c>
       <c r="BS5" t="n">
-        <v>7.969999999999978</v>
+        <v>2.479999999999969</v>
       </c>
       <c r="BT5" t="n">
         <v>136.28</v>
@@ -2919,7 +2919,7 @@
         <v>8.43</v>
       </c>
       <c r="BV5" t="n">
-        <v>5.710000000000001</v>
+        <v>3.149999999999999</v>
       </c>
       <c r="BW5" t="n">
         <v>29.65</v>
@@ -2946,7 +2946,7 @@
         <v>3.02</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.27</v>
+        <v>0.2900000000000032</v>
       </c>
       <c r="CF5" t="n">
         <v>27.07</v>
@@ -2955,7 +2955,7 @@
         <v>-10.33</v>
       </c>
       <c r="CH5" t="n">
-        <v>7.010000000000002</v>
+        <v>0.830000000000005</v>
       </c>
       <c r="CI5" t="n">
         <v>19.33</v>
@@ -2973,7 +2973,7 @@
         <v>-7.98</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.96</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="CO5" t="n">
         <v>4.53</v>
@@ -3027,7 +3027,7 @@
         <v>-3.18</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.490000000000002</v>
+        <v>0.3300000000000091</v>
       </c>
       <c r="DG5" t="n">
         <v>23.79</v>
@@ -3036,7 +3036,7 @@
         <v>-3.53</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.7600000000000011</v>
+        <v>0.7200000000000091</v>
       </c>
       <c r="DJ5" t="n">
         <v>13.85</v>
@@ -3045,7 +3045,7 @@
         <v>1.16</v>
       </c>
       <c r="DL5" t="n">
-        <v>12.72</v>
+        <v>12.04</v>
       </c>
       <c r="DM5" t="n">
         <v>51.56</v>
@@ -3054,7 +3054,7 @@
         <v>-15.29</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.06</v>
+        <v>0.01999999999999908</v>
       </c>
       <c r="DP5" t="n">
         <v>1.53</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.699999999999999</v>
+        <v>3.619999999999993</v>
       </c>
       <c r="C6" t="n">
         <v>21.22</v>
@@ -3199,7 +3199,7 @@
         <v>-8.52</v>
       </c>
       <c r="E6" t="n">
-        <v>8.279999999999994</v>
+        <v>6.920000000000009</v>
       </c>
       <c r="F6" t="n">
         <v>52.48</v>
@@ -3208,7 +3208,7 @@
         <v>-8.85</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>4.92</v>
@@ -3217,7 +3217,7 @@
         <v>-10.77</v>
       </c>
       <c r="K6" t="n">
-        <v>0.79</v>
+        <v>0.3900000000000015</v>
       </c>
       <c r="L6" t="n">
         <v>4.87</v>
@@ -3226,7 +3226,7 @@
         <v>-1.23</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="O6" t="n">
         <v>0.06</v>
@@ -3244,7 +3244,7 @@
         <v>-10.05</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.3200000000000038</v>
       </c>
       <c r="U6" t="n">
         <v>14.62</v>
@@ -3262,7 +3262,7 @@
         <v>5.97</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.1500000000000004</v>
       </c>
       <c r="AA6" t="n">
         <v>6.14</v>
@@ -3271,7 +3271,7 @@
         <v>1.29</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.209999999999999</v>
+        <v>0.7600000000000116</v>
       </c>
       <c r="AD6" t="n">
         <v>15.22</v>
@@ -3289,7 +3289,7 @@
         <v>13.26</v>
       </c>
       <c r="AI6" t="n">
-        <v>160.66</v>
+        <v>113.5999999999991</v>
       </c>
       <c r="AJ6" t="n">
         <v>932.37</v>
@@ -3307,7 +3307,7 @@
         <v>7.47</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.229999999999997</v>
+        <v>0.9499999999999749</v>
       </c>
       <c r="AP6" t="n">
         <v>34.35</v>
@@ -3316,7 +3316,7 @@
         <v>0.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.57</v>
+        <v>1.93</v>
       </c>
       <c r="AS6" t="n">
         <v>27.79</v>
@@ -3325,7 +3325,7 @@
         <v>-31.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9799999999999995</v>
+        <v>0.6699999999999942</v>
       </c>
       <c r="AV6" t="n">
         <v>5.03</v>
@@ -3334,7 +3334,7 @@
         <v>-5.57</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.629999999999999</v>
+        <v>0.909999999999991</v>
       </c>
       <c r="AY6" t="n">
         <v>12.48</v>
@@ -3343,7 +3343,7 @@
         <v>7.21</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.109999999999999</v>
+        <v>0.02999999999999669</v>
       </c>
       <c r="BB6" t="n">
         <v>6.51</v>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.03000000000000025</v>
+        <v>0.009999999999999669</v>
       </c>
       <c r="BE6" t="n">
         <v>2.39</v>
@@ -3361,7 +3361,7 @@
         <v>1.23</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.6</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="BH6" t="n">
         <v>9.98</v>
@@ -3379,7 +3379,7 @@
         <v>-3.15</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.09000000000000011</v>
       </c>
       <c r="BN6" t="n">
         <v>1.26</v>
@@ -3388,7 +3388,7 @@
         <v>3.28</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.969999999999999</v>
+        <v>0.3499999999999952</v>
       </c>
       <c r="BQ6" t="n">
         <v>21.88</v>
@@ -3397,7 +3397,7 @@
         <v>9.91</v>
       </c>
       <c r="BS6" t="n">
-        <v>26.94</v>
+        <v>11.53000000000011</v>
       </c>
       <c r="BT6" t="n">
         <v>171.87</v>
@@ -3406,7 +3406,7 @@
         <v>6.9</v>
       </c>
       <c r="BV6" t="n">
-        <v>5.519999999999996</v>
+        <v>0.4499999999999957</v>
       </c>
       <c r="BW6" t="n">
         <v>35.53</v>
@@ -3415,7 +3415,7 @@
         <v>-1.69</v>
       </c>
       <c r="BY6" t="n">
-        <v>7.240000000000002</v>
+        <v>1.270000000000017</v>
       </c>
       <c r="BZ6" t="n">
         <v>38.3</v>
@@ -3433,7 +3433,7 @@
         <v>4.73</v>
       </c>
       <c r="CE6" t="n">
-        <v>5.720000000000002</v>
+        <v>3.089999999999995</v>
       </c>
       <c r="CF6" t="n">
         <v>28.84</v>
@@ -3442,7 +3442,7 @@
         <v>-8.33</v>
       </c>
       <c r="CH6" t="n">
-        <v>4.090000000000003</v>
+        <v>0.3699999999999941</v>
       </c>
       <c r="CI6" t="n">
         <v>23.41</v>
@@ -3451,7 +3451,7 @@
         <v>-24.15</v>
       </c>
       <c r="CK6" t="n">
-        <v>9.020000000000003</v>
+        <v>7.300000000000033</v>
       </c>
       <c r="CL6" t="n">
         <v>49.96</v>
@@ -3460,7 +3460,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.96</v>
+        <v>0.06000000000000028</v>
       </c>
       <c r="CO6" t="n">
         <v>5.55</v>
@@ -3469,7 +3469,7 @@
         <v>3.13</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.100000000000001</v>
+        <v>3.140000000000015</v>
       </c>
       <c r="CR6" t="n">
         <v>24.13</v>
@@ -3478,7 +3478,7 @@
         <v>5.88</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.670000000000002</v>
+        <v>0.9100000000000059</v>
       </c>
       <c r="CU6" t="n">
         <v>21.01</v>
@@ -3487,7 +3487,7 @@
         <v>4.4</v>
       </c>
       <c r="CW6" t="n">
-        <v>8.920000000000002</v>
+        <v>3.319999999999979</v>
       </c>
       <c r="CX6" t="n">
         <v>48.2</v>
@@ -3496,7 +3496,7 @@
         <v>-7.38</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.6900000000000004</v>
+        <v>0.0500000000000016</v>
       </c>
       <c r="DA6" t="n">
         <v>3.41</v>
@@ -3505,7 +3505,7 @@
         <v>-5.85</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.029999999999999</v>
+        <v>1.429999999999991</v>
       </c>
       <c r="DD6" t="n">
         <v>12.01</v>
@@ -3514,7 +3514,7 @@
         <v>-5.08</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.91</v>
+        <v>0.6899999999999806</v>
       </c>
       <c r="DG6" t="n">
         <v>29.71</v>
@@ -3523,7 +3523,7 @@
         <v>-3.77</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.489999999999998</v>
+        <v>0.509999999999982</v>
       </c>
       <c r="DJ6" t="n">
         <v>16.44</v>
@@ -3695,7 +3695,7 @@
         <v>-7.68</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>5.85</v>
@@ -3704,7 +3704,7 @@
         <v>-8.09</v>
       </c>
       <c r="K7" t="n">
-        <v>0.71</v>
+        <v>0.01999999999999957</v>
       </c>
       <c r="L7" t="n">
         <v>5.63</v>
@@ -3722,7 +3722,7 @@
         <v>59.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.17</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="R7" t="n">
         <v>81.01000000000001</v>
@@ -3731,7 +3731,7 @@
         <v>-9.58</v>
       </c>
       <c r="T7" t="n">
-        <v>2.699999999999999</v>
+        <v>0.2799999999999863</v>
       </c>
       <c r="U7" t="n">
         <v>16.86</v>
@@ -3740,7 +3740,7 @@
         <v>-10.74</v>
       </c>
       <c r="W7" t="n">
-        <v>3.420000000000002</v>
+        <v>2.259999999999994</v>
       </c>
       <c r="X7" t="n">
         <v>25</v>
@@ -3749,7 +3749,7 @@
         <v>2.98</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3399999999999996</v>
+        <v>0.03999999999999879</v>
       </c>
       <c r="AA7" t="n">
         <v>7.14</v>
@@ -3758,7 +3758,7 @@
         <v>5.15</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.190000000000003</v>
+        <v>0.139999999999995</v>
       </c>
       <c r="AD7" t="n">
         <v>17.91</v>
@@ -3776,7 +3776,7 @@
         <v>12.51</v>
       </c>
       <c r="AI7" t="n">
-        <v>150.1400000000001</v>
+        <v>6.900000000000205</v>
       </c>
       <c r="AJ7" t="n">
         <v>1088.29</v>
@@ -3785,7 +3785,7 @@
         <v>-4.58</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4700000000000002</v>
+        <v>0.1900000000000026</v>
       </c>
       <c r="AM7" t="n">
         <v>3.14</v>
@@ -3812,7 +3812,7 @@
         <v>-28.62</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7800000000000002</v>
+        <v>0.03000000000000247</v>
       </c>
       <c r="AV7" t="n">
         <v>5.94</v>
@@ -3830,7 +3830,7 @@
         <v>10.06</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.09</v>
+        <v>0.8500000000000099</v>
       </c>
       <c r="BB7" t="n">
         <v>7.64</v>
@@ -3839,7 +3839,7 @@
         <v>-1.24</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1199999999999997</v>
+        <v>0.02999999999999957</v>
       </c>
       <c r="BE7" t="n">
         <v>2.72</v>
@@ -3848,7 +3848,7 @@
         <v>-5.44</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.05999999999999983</v>
       </c>
       <c r="BH7" t="n">
         <v>12.04</v>
@@ -3857,7 +3857,7 @@
         <v>4.79</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.82</v>
+        <v>0.8600000000000012</v>
       </c>
       <c r="BK7" t="n">
         <v>11.56</v>
@@ -3866,7 +3866,7 @@
         <v>-1.91</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.2099999999999997</v>
+        <v>0.09999999999999959</v>
       </c>
       <c r="BN7" t="n">
         <v>1.47</v>
@@ -3875,7 +3875,7 @@
         <v>10.5</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.5700000000000041</v>
+        <v>0.2200000000000089</v>
       </c>
       <c r="BQ7" t="n">
         <v>24.8</v>
@@ -3884,7 +3884,7 @@
         <v>13.33</v>
       </c>
       <c r="BS7" t="n">
-        <v>18.40000000000001</v>
+        <v>1.909999999999958</v>
       </c>
       <c r="BT7" t="n">
         <v>198.86</v>
@@ -3893,7 +3893,7 @@
         <v>5.93</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.8400000000000114</v>
+        <v>0.3900000000000157</v>
       </c>
       <c r="BW7" t="n">
         <v>42.97</v>
@@ -3902,7 +3902,7 @@
         <v>3.14</v>
       </c>
       <c r="BY7" t="n">
-        <v>4.82</v>
+        <v>0.2899999999999712</v>
       </c>
       <c r="BZ7" t="n">
         <v>45.33</v>
@@ -3911,7 +3911,7 @@
         <v>-4.72</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="CC7" t="n">
         <v>8.210000000000001</v>
@@ -3929,7 +3929,7 @@
         <v>-7.21</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.579999999999998</v>
+        <v>0.379999999999999</v>
       </c>
       <c r="CI7" t="n">
         <v>26.12</v>
@@ -3947,7 +3947,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.9400000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="CO7" t="n">
         <v>6.46</v>
@@ -3956,7 +3956,7 @@
         <v>1.86</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.800000000000001</v>
+        <v>0.1799999999999922</v>
       </c>
       <c r="CR7" t="n">
         <v>28.31</v>
@@ -3965,7 +3965,7 @@
         <v>5.26</v>
       </c>
       <c r="CT7" t="n">
-        <v>3.390000000000001</v>
+        <v>0.4099999999999979</v>
       </c>
       <c r="CU7" t="n">
         <v>24.96</v>
@@ -3974,7 +3974,7 @@
         <v>4.86</v>
       </c>
       <c r="CW7" t="n">
-        <v>8.910000000000004</v>
+        <v>1.390000000000008</v>
       </c>
       <c r="CX7" t="n">
         <v>57.12</v>
@@ -3983,7 +3983,7 @@
         <v>-6.31</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.0999999999999992</v>
       </c>
       <c r="DA7" t="n">
         <v>4.19</v>
@@ -3992,7 +3992,7 @@
         <v>-3.1</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.969999999999999</v>
+        <v>0.09000000000000208</v>
       </c>
       <c r="DD7" t="n">
         <v>14.09</v>
@@ -4001,7 +4001,7 @@
         <v>-4.03</v>
       </c>
       <c r="DF7" t="n">
-        <v>4.140000000000001</v>
+        <v>0.7200000000000024</v>
       </c>
       <c r="DG7" t="n">
         <v>34.4</v>
@@ -4010,7 +4010,7 @@
         <v>-3.85</v>
       </c>
       <c r="DI7" t="n">
-        <v>2.440000000000001</v>
+        <v>0.4600000000000068</v>
       </c>
       <c r="DJ7" t="n">
         <v>19.53</v>
@@ -4028,7 +4028,7 @@
         <v>-17.81</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.2599999999999998</v>
+        <v>0.2199999999999998</v>
       </c>
       <c r="DP7" t="n">
         <v>2.21</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.819999999999997</v>
+        <v>2.859999999999989</v>
       </c>
       <c r="C8" t="n">
         <v>27.87</v>
@@ -4173,7 +4173,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.279999999999987</v>
+        <v>1.679999999999953</v>
       </c>
       <c r="F8" t="n">
         <v>69.90000000000001</v>
@@ -4182,7 +4182,7 @@
         <v>-10.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2599999999999989</v>
+        <v>0.129999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>6.56</v>
@@ -4191,7 +4191,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.2700000000000009</v>
       </c>
       <c r="L8" t="n">
         <v>6.32</v>
@@ -4200,7 +4200,7 @@
         <v>-1.81</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05</v>
+        <v>0.01000000000000002</v>
       </c>
       <c r="O8" t="n">
         <v>0.1</v>
@@ -4218,7 +4218,7 @@
         <v>-8.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>0.500000000000004</v>
       </c>
       <c r="U8" t="n">
         <v>19.27</v>
@@ -4245,7 +4245,7 @@
         <v>0.06</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.82</v>
+        <v>0.629999999999997</v>
       </c>
       <c r="AD8" t="n">
         <v>20.52</v>
@@ -4254,7 +4254,7 @@
         <v>-0.52</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.3100000000000003</v>
       </c>
       <c r="AG8" t="n">
         <v>3.46</v>
@@ -4263,7 +4263,7 @@
         <v>12.79</v>
       </c>
       <c r="AI8" t="n">
-        <v>26.91999999999979</v>
+        <v>13.11999999999938</v>
       </c>
       <c r="AJ8" t="n">
         <v>1243.46</v>
@@ -4290,7 +4290,7 @@
         <v>1.28</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.990000000000002</v>
+        <v>1.190000000000004</v>
       </c>
       <c r="AS8" t="n">
         <v>37.38</v>
@@ -4299,7 +4299,7 @@
         <v>-29.96</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.7800000000000002</v>
+        <v>0.7499999999999978</v>
       </c>
       <c r="AV8" t="n">
         <v>6.75</v>
@@ -4308,7 +4308,7 @@
         <v>-4.91</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.189999999999998</v>
+        <v>0.5699999999999941</v>
       </c>
       <c r="AY8" t="n">
         <v>16.36</v>
@@ -4317,7 +4317,7 @@
         <v>4.17</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.9800000000000004</v>
+        <v>0.06999999999999718</v>
       </c>
       <c r="BB8" t="n">
         <v>8.67</v>
@@ -4326,7 +4326,7 @@
         <v>-1.83</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.03000000000000104</v>
       </c>
       <c r="BE8" t="n">
         <v>2.95</v>
@@ -4335,7 +4335,7 @@
         <v>-15.73</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="BH8" t="n">
         <v>13.67</v>
@@ -4344,7 +4344,7 @@
         <v>3.32</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.73</v>
+        <v>0.009999999999997566</v>
       </c>
       <c r="BK8" t="n">
         <v>17.72</v>
@@ -4353,7 +4353,7 @@
         <v>30.19</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.2000000000000002</v>
+        <v>1.013078509970455e-15</v>
       </c>
       <c r="BN8" t="n">
         <v>1.69</v>
@@ -4362,7 +4362,7 @@
         <v>2.4</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.049999999999997</v>
+        <v>0.4799999999999929</v>
       </c>
       <c r="BQ8" t="n">
         <v>29.61</v>
@@ -4371,7 +4371,7 @@
         <v>21.23</v>
       </c>
       <c r="BS8" t="n">
-        <v>19.07999999999998</v>
+        <v>0.6799999999999713</v>
       </c>
       <c r="BT8" t="n">
         <v>224.77</v>
@@ -4389,7 +4389,7 @@
         <v>4.02</v>
       </c>
       <c r="BY8" t="n">
-        <v>2.460000000000001</v>
+        <v>0.9000000000000128</v>
       </c>
       <c r="BZ8" t="n">
         <v>51.64</v>
@@ -4407,7 +4407,7 @@
         <v>1.06</v>
       </c>
       <c r="CE8" t="n">
-        <v>3.300000000000011</v>
+        <v>0.1300000000000159</v>
       </c>
       <c r="CF8" t="n">
         <v>40.9</v>
@@ -4425,7 +4425,7 @@
         <v>-19.17</v>
       </c>
       <c r="CK8" t="n">
-        <v>8.390000000000001</v>
+        <v>6.070000000000007</v>
       </c>
       <c r="CL8" t="n">
         <v>66.12</v>
@@ -4434,7 +4434,7 @@
         <v>-9.98</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.7599999999999989</v>
+        <v>0.1599999999999986</v>
       </c>
       <c r="CO8" t="n">
         <v>7.51</v>
@@ -4443,7 +4443,7 @@
         <v>3.27</v>
       </c>
       <c r="CQ8" t="n">
-        <v>3.199999999999999</v>
+        <v>3.020000000000007</v>
       </c>
       <c r="CR8" t="n">
         <v>31.86</v>
@@ -4452,7 +4452,7 @@
         <v>3.82</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.359999999999999</v>
+        <v>0.5400000000000031</v>
       </c>
       <c r="CU8" t="n">
         <v>28.91</v>
@@ -4461,7 +4461,7 @@
         <v>6.33</v>
       </c>
       <c r="CW8" t="n">
-        <v>8.759999999999991</v>
+        <v>5.979999999999976</v>
       </c>
       <c r="CX8" t="n">
         <v>64.84</v>
@@ -4479,7 +4479,7 @@
         <v>-4.05</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.2300000000000038</v>
+        <v>0.04999999999999963</v>
       </c>
       <c r="DD8" t="n">
         <v>16.28</v>
@@ -4488,7 +4488,7 @@
         <v>-2.2</v>
       </c>
       <c r="DF8" t="n">
-        <v>2.009999999999998</v>
+        <v>0.5699999999999936</v>
       </c>
       <c r="DG8" t="n">
         <v>39.17</v>
@@ -4660,7 +4660,7 @@
         <v>-8.76</v>
       </c>
       <c r="E9" t="n">
-        <v>9.120000000000005</v>
+        <v>0.2800000000001279</v>
       </c>
       <c r="F9" t="n">
         <v>79.31</v>
@@ -4669,7 +4669,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6800000000000015</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="I9" t="n">
         <v>7.55</v>
@@ -4678,7 +4678,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="L9" t="n">
         <v>7.45</v>
@@ -4696,7 +4696,7 @@
         <v>80.70999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.30999999999999</v>
+        <v>3.889999999999992</v>
       </c>
       <c r="R9" t="n">
         <v>104.97</v>
@@ -4714,7 +4714,7 @@
         <v>-8.75</v>
       </c>
       <c r="W9" t="n">
-        <v>3.559999999999999</v>
+        <v>0.3600000000000112</v>
       </c>
       <c r="X9" t="n">
         <v>32.16</v>
@@ -4732,7 +4732,7 @@
         <v>-0.33</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000295</v>
       </c>
       <c r="AD9" t="n">
         <v>23.52</v>
@@ -4750,7 +4750,7 @@
         <v>20.81</v>
       </c>
       <c r="AI9" t="n">
-        <v>153.1400000000001</v>
+        <v>52.36000000000114</v>
       </c>
       <c r="AJ9" t="n">
         <v>1427.33</v>
@@ -4759,7 +4759,7 @@
         <v>-2.75</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.3300000000000018</v>
       </c>
       <c r="AM9" t="n">
         <v>4.19</v>
@@ -4768,7 +4768,7 @@
         <v>3.41</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.119999999999997</v>
+        <v>4.079999999999977</v>
       </c>
       <c r="AP9" t="n">
         <v>52.19</v>
@@ -4795,7 +4795,7 @@
         <v>-5.03</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.860000000000003</v>
+        <v>0.4800000000000071</v>
       </c>
       <c r="AY9" t="n">
         <v>18.71</v>
@@ -4813,7 +4813,7 @@
         <v>0.78</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0699999999999994</v>
+        <v>0.009999999999997324</v>
       </c>
       <c r="BE9" t="n">
         <v>3.3</v>
@@ -4831,7 +4831,7 @@
         <v>5.5</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.039999999999999</v>
+        <v>0.1600000000000026</v>
       </c>
       <c r="BK9" t="n">
         <v>21.69</v>
@@ -4840,7 +4840,7 @@
         <v>41.38</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.03999999999999959</v>
+        <v>0.03999999999999858</v>
       </c>
       <c r="BN9" t="n">
         <v>1.96</v>
@@ -4858,7 +4858,7 @@
         <v>23.61</v>
       </c>
       <c r="BS9" t="n">
-        <v>21.44000000000003</v>
+        <v>0.3200000000001357</v>
       </c>
       <c r="BT9" t="n">
         <v>264.9</v>
@@ -4867,7 +4867,7 @@
         <v>8.74</v>
       </c>
       <c r="BV9" t="n">
-        <v>5.530000000000001</v>
+        <v>5.050000000000043</v>
       </c>
       <c r="BW9" t="n">
         <v>57.8</v>
@@ -4876,7 +4876,7 @@
         <v>6.05</v>
       </c>
       <c r="BY9" t="n">
-        <v>6.289999999999992</v>
+        <v>1.36999999999999</v>
       </c>
       <c r="BZ9" t="n">
         <v>58.46</v>
@@ -4885,7 +4885,7 @@
         <v>-2.02</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.369999999999999</v>
+        <v>0.8099999999999949</v>
       </c>
       <c r="CC9" t="n">
         <v>10.7</v>
@@ -4894,7 +4894,7 @@
         <v>0.19</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.989999999999995</v>
+        <v>1.299999999999936</v>
       </c>
       <c r="CF9" t="n">
         <v>48.33</v>
@@ -4903,7 +4903,7 @@
         <v>0.5</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.649999999999999</v>
+        <v>0.3099999999999952</v>
       </c>
       <c r="CI9" t="n">
         <v>32.58</v>
@@ -4939,7 +4939,7 @@
         <v>6.92</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.429999999999996</v>
+        <v>0.7099999999999982</v>
       </c>
       <c r="CU9" t="n">
         <v>33.53</v>
@@ -4957,7 +4957,7 @@
         <v>-6.63</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.6399999999999997</v>
+        <v>0.3599999999999985</v>
       </c>
       <c r="DA9" t="n">
         <v>5.4</v>
@@ -4966,7 +4966,7 @@
         <v>-4.37</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.0699999999999934</v>
       </c>
       <c r="DD9" t="n">
         <v>18.68</v>
@@ -4975,7 +4975,7 @@
         <v>-0.92</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.890000000000001</v>
+        <v>0.870000000000005</v>
       </c>
       <c r="DG9" t="n">
         <v>44.44</v>
@@ -4984,7 +4984,7 @@
         <v>-3.53</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.34</v>
+        <v>0.7</v>
       </c>
       <c r="DJ9" t="n">
         <v>25.34</v>
@@ -4993,7 +4993,7 @@
         <v>-2.98</v>
       </c>
       <c r="DL9" t="n">
-        <v>8.829999999999998</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="DM9" t="n">
         <v>88.45999999999999</v>
@@ -5002,7 +5002,7 @@
         <v>-18.39</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="DP9" t="n">
         <v>2.9</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.459999999999994</v>
+        <v>3.299999999999954</v>
       </c>
       <c r="C10" t="n">
         <v>35.22</v>
@@ -5165,7 +5165,7 @@
         <v>-5.67</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="L10" t="n">
         <v>8.66</v>
@@ -5174,7 +5174,7 @@
         <v>4.12</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="O10" t="n">
         <v>0.14</v>
@@ -5183,7 +5183,7 @@
         <v>100.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.350000000000023</v>
+        <v>1.250000000000032</v>
       </c>
       <c r="R10" t="n">
         <v>116.07</v>
@@ -5201,7 +5201,7 @@
         <v>-10.79</v>
       </c>
       <c r="W10" t="n">
-        <v>3.230000000000004</v>
+        <v>0.470000000000002</v>
       </c>
       <c r="X10" t="n">
         <v>36.84</v>
@@ -5210,7 +5210,7 @@
         <v>3.85</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.879999999999999</v>
+        <v>0.7599999999999909</v>
       </c>
       <c r="AA10" t="n">
         <v>9.960000000000001</v>
@@ -5219,7 +5219,7 @@
         <v>-2.46</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.199999999999999</v>
+        <v>0.659999999999993</v>
       </c>
       <c r="AD10" t="n">
         <v>26.59</v>
@@ -5228,7 +5228,7 @@
         <v>6.54</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.02999999999999929</v>
       </c>
       <c r="AG10" t="n">
         <v>4.52</v>
@@ -5237,7 +5237,7 @@
         <v>14.55</v>
       </c>
       <c r="AI10" t="n">
-        <v>145.1099999999999</v>
+        <v>18.8899999999996</v>
       </c>
       <c r="AJ10" t="n">
         <v>1587.98</v>
@@ -5246,7 +5246,7 @@
         <v>-2.03</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.46</v>
+        <v>0.009999999999999398</v>
       </c>
       <c r="AM10" t="n">
         <v>4.72</v>
@@ -5255,7 +5255,7 @@
         <v>3.86</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.5</v>
+        <v>0.4000000000000128</v>
       </c>
       <c r="AP10" t="n">
         <v>58.11</v>
@@ -5264,7 +5264,7 @@
         <v>0.68</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.999999999999993</v>
+        <v>4.879999999999987</v>
       </c>
       <c r="AS10" t="n">
         <v>47.14</v>
@@ -5273,7 +5273,7 @@
         <v>-25.62</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.2999999999999996</v>
+        <v>0.05999999999999933</v>
       </c>
       <c r="AV10" t="n">
         <v>8.130000000000001</v>
@@ -5291,7 +5291,7 @@
         <v>3.38</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.0100000000000009</v>
       </c>
       <c r="BB10" t="n">
         <v>11.06</v>
@@ -5309,7 +5309,7 @@
         <v>-13.03</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.349999999999998</v>
+        <v>0.2399999999999944</v>
       </c>
       <c r="BH10" t="n">
         <v>17.52</v>
@@ -5327,7 +5327,7 @@
         <v>54.19</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.05000000000000018</v>
+        <v>0.01000000000000059</v>
       </c>
       <c r="BN10" t="n">
         <v>2.17</v>
@@ -5336,7 +5336,7 @@
         <v>4.07</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.690000000000001</v>
+        <v>2.170000000000005</v>
       </c>
       <c r="BQ10" t="n">
         <v>37.88</v>
@@ -5345,7 +5345,7 @@
         <v>19.4</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.15999999999994</v>
+        <v>0.799999999999891</v>
       </c>
       <c r="BT10" t="n">
         <v>291.51</v>
@@ -5372,7 +5372,7 @@
         <v>-1.9</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.300000000000001</v>
+        <v>0.07000000000000295</v>
       </c>
       <c r="CC10" t="n">
         <v>12.13</v>
@@ -5381,7 +5381,7 @@
         <v>0.75</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.829999999999998</v>
+        <v>0.1400000000000141</v>
       </c>
       <c r="CF10" t="n">
         <v>53.75</v>
@@ -5390,7 +5390,7 @@
         <v>1.26</v>
       </c>
       <c r="CH10" t="n">
-        <v>5.009999999999998</v>
+        <v>0.2600000000000115</v>
       </c>
       <c r="CI10" t="n">
         <v>37.49</v>
@@ -5417,7 +5417,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="CQ10" t="n">
-        <v>4.219999999999999</v>
+        <v>0.4699999999999871</v>
       </c>
       <c r="CR10" t="n">
         <v>40.63</v>
@@ -5426,7 +5426,7 @@
         <v>5.96</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.539999999999999</v>
+        <v>0.470000000000002</v>
       </c>
       <c r="CU10" t="n">
         <v>38.54</v>
@@ -5435,7 +5435,7 @@
         <v>8.99</v>
       </c>
       <c r="CW10" t="n">
-        <v>8.379999999999995</v>
+        <v>4.379999999999939</v>
       </c>
       <c r="CX10" t="n">
         <v>81.06</v>
@@ -5453,7 +5453,7 @@
         <v>-4.9</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.07</v>
+        <v>1.560000000000024</v>
       </c>
       <c r="DD10" t="n">
         <v>20.9</v>
@@ -5462,7 +5462,7 @@
         <v>-2.14</v>
       </c>
       <c r="DF10" t="n">
-        <v>4.659999999999997</v>
+        <v>0.03999999999998405</v>
       </c>
       <c r="DG10" t="n">
         <v>49.03</v>
@@ -5471,7 +5471,7 @@
         <v>-3.78</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.189999999999998</v>
+        <v>0.2599999999999982</v>
       </c>
       <c r="DJ10" t="n">
         <v>27.99</v>
@@ -5634,7 +5634,7 @@
         <v>-8.57</v>
       </c>
       <c r="E11" t="n">
-        <v>8.189999999999998</v>
+        <v>7.670000000000016</v>
       </c>
       <c r="F11" t="n">
         <v>95.58</v>
@@ -5643,7 +5643,7 @@
         <v>-9.470000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3200000000000025</v>
+        <v>0.0400000000000085</v>
       </c>
       <c r="I11" t="n">
         <v>9.300000000000001</v>
@@ -5652,7 +5652,7 @@
         <v>-5.04</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.03000000000000053</v>
       </c>
       <c r="L11" t="n">
         <v>9.119999999999999</v>
@@ -5661,7 +5661,7 @@
         <v>-0.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="O11" t="n">
         <v>0.14</v>
@@ -5670,7 +5670,7 @@
         <v>105.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.419999999999987</v>
+        <v>0.9199999999999231</v>
       </c>
       <c r="R11" t="n">
         <v>126.18</v>
@@ -5679,7 +5679,7 @@
         <v>-9.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.629999999999999</v>
+        <v>1.109999999999991</v>
       </c>
       <c r="U11" t="n">
         <v>25.62</v>
@@ -5715,7 +5715,7 @@
         <v>6.09</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.060000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>4.88</v>
@@ -5724,7 +5724,7 @@
         <v>11.38</v>
       </c>
       <c r="AI11" t="n">
-        <v>138.27</v>
+        <v>100.4900000000008</v>
       </c>
       <c r="AJ11" t="n">
         <v>1731.48</v>
@@ -5733,7 +5733,7 @@
         <v>-1.96</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.3099999999999996</v>
+        <v>0.2900000000000008</v>
       </c>
       <c r="AM11" t="n">
         <v>5.2</v>
@@ -5742,7 +5742,7 @@
         <v>3.87</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7600000000000051</v>
+        <v>0.3599999999999923</v>
       </c>
       <c r="AP11" t="n">
         <v>64.02</v>
@@ -5760,7 +5760,7 @@
         <v>-25.35</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.01000000000000148</v>
       </c>
       <c r="AV11" t="n">
         <v>9.039999999999999</v>
@@ -5778,7 +5778,7 @@
         <v>2.33</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.4699999999999975</v>
       </c>
       <c r="BB11" t="n">
         <v>12.15</v>
@@ -5787,7 +5787,7 @@
         <v>2.15</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.1900000000000003</v>
+        <v>0.06999999999999909</v>
       </c>
       <c r="BE11" t="n">
         <v>3.83</v>
@@ -5796,7 +5796,7 @@
         <v>-12.66</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.309999999999999</v>
+        <v>0.09000000000000771</v>
       </c>
       <c r="BH11" t="n">
         <v>19</v>
@@ -5805,7 +5805,7 @@
         <v>3.98</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.379999999999999</v>
+        <v>2.979999999999991</v>
       </c>
       <c r="BK11" t="n">
         <v>28.2</v>
@@ -5814,7 +5814,7 @@
         <v>60.97</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.27</v>
+        <v>0.189999999999998</v>
       </c>
       <c r="BN11" t="n">
         <v>2.3</v>
@@ -5823,7 +5823,7 @@
         <v>-3.51</v>
       </c>
       <c r="BP11" t="n">
-        <v>2.419999999999999</v>
+        <v>0.1199999999999952</v>
       </c>
       <c r="BQ11" t="n">
         <v>41.82</v>
@@ -5832,7 +5832,7 @@
         <v>21.5</v>
       </c>
       <c r="BS11" t="n">
-        <v>18.93000000000001</v>
+        <v>11.01000000000035</v>
       </c>
       <c r="BT11" t="n">
         <v>313.02</v>
@@ -5841,7 +5841,7 @@
         <v>8.07</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.540000000000006</v>
+        <v>0.02000000000002461</v>
       </c>
       <c r="BW11" t="n">
         <v>72.98999999999999</v>
@@ -5850,7 +5850,7 @@
         <v>10.69</v>
       </c>
       <c r="BY11" t="n">
-        <v>2.570000000000007</v>
+        <v>2.289999999999979</v>
       </c>
       <c r="BZ11" t="n">
         <v>71.69</v>
@@ -5859,7 +5859,7 @@
         <v>-0.87</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.5199999999999942</v>
       </c>
       <c r="CC11" t="n">
         <v>13.17</v>
@@ -5868,7 +5868,7 @@
         <v>-1.28</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.950000000000003</v>
+        <v>0.120000000000005</v>
       </c>
       <c r="CF11" t="n">
         <v>57.55</v>
@@ -5877,7 +5877,7 @@
         <v>4.8</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.660000000000004</v>
+        <v>0.2099999999999953</v>
       </c>
       <c r="CI11" t="n">
         <v>39.82</v>
@@ -5886,7 +5886,7 @@
         <v>-19.85</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.1999999999999727</v>
       </c>
       <c r="CL11" t="n">
         <v>92.09999999999999</v>
@@ -5895,7 +5895,7 @@
         <v>-7.79</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.2000000000000082</v>
       </c>
       <c r="CO11" t="n">
         <v>10.43</v>
@@ -5913,7 +5913,7 @@
         <v>5.19</v>
       </c>
       <c r="CT11" t="n">
-        <v>2.110000000000007</v>
+        <v>1.170000000000003</v>
       </c>
       <c r="CU11" t="n">
         <v>41.36</v>
@@ -5931,7 +5931,7 @@
         <v>-7.92</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.05000000000000066</v>
       </c>
       <c r="DA11" t="n">
         <v>6.63</v>
@@ -5949,7 +5949,7 @@
         <v>-1.11</v>
       </c>
       <c r="DF11" t="n">
-        <v>1.750000000000007</v>
+        <v>0.8400000000000181</v>
       </c>
       <c r="DG11" t="n">
         <v>53.89</v>
@@ -5958,7 +5958,7 @@
         <v>-3.1</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.7800000000000007</v>
+        <v>0.2600000000000043</v>
       </c>
       <c r="DJ11" t="n">
         <v>30.67</v>
@@ -5967,7 +5967,7 @@
         <v>0.05</v>
       </c>
       <c r="DL11" t="n">
-        <v>112.56</v>
+        <v>110.72</v>
       </c>
       <c r="DM11" t="n">
         <v>106.89</v>
@@ -5976,7 +5976,7 @@
         <v>-15.51</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.1300000000000003</v>
+        <v>0.05000000000000181</v>
       </c>
       <c r="DP11" t="n">
         <v>3.6</v>
@@ -6130,7 +6130,7 @@
         <v>-11.22</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2699999999999989</v>
+        <v>0.009999999999976417</v>
       </c>
       <c r="I12" t="n">
         <v>10.65</v>
@@ -6139,7 +6139,7 @@
         <v>-2.51</v>
       </c>
       <c r="K12" t="n">
-        <v>0.26</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>10.42</v>
@@ -6157,7 +6157,7 @@
         <v>55.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.87000000000001</v>
+        <v>5.440000000000087</v>
       </c>
       <c r="R12" t="n">
         <v>133.65</v>
@@ -6166,7 +6166,7 @@
         <v>-6.69</v>
       </c>
       <c r="T12" t="n">
-        <v>3.360000000000001</v>
+        <v>0.2300000000000051</v>
       </c>
       <c r="U12" t="n">
         <v>25.22</v>
@@ -6175,7 +6175,7 @@
         <v>-19.68</v>
       </c>
       <c r="W12" t="n">
-        <v>3.170000000000004</v>
+        <v>2.010000000000036</v>
       </c>
       <c r="X12" t="n">
         <v>44.77</v>
@@ -6184,7 +6184,7 @@
         <v>6.04</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.4800000000000009</v>
+        <v>0.1600000000000008</v>
       </c>
       <c r="AA12" t="n">
         <v>12.09</v>
@@ -6193,7 +6193,7 @@
         <v>-1.64</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.670000000000002</v>
+        <v>0.4100000000000039</v>
       </c>
       <c r="AD12" t="n">
         <v>32.73</v>
@@ -6202,7 +6202,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.77</v>
+        <v>0.2599999999999974</v>
       </c>
       <c r="AG12" t="n">
         <v>5.36</v>
@@ -6211,7 +6211,7 @@
         <v>3.11</v>
       </c>
       <c r="AI12" t="n">
-        <v>146.08</v>
+        <v>7.810000000000002</v>
       </c>
       <c r="AJ12" t="n">
         <v>1878.71</v>
@@ -6220,7 +6220,7 @@
         <v>-1.34</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.1700000000000008</v>
       </c>
       <c r="AM12" t="n">
         <v>6.02</v>
@@ -6229,7 +6229,7 @@
         <v>13.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.089999999999995</v>
+        <v>0.04999999999997473</v>
       </c>
       <c r="AP12" t="n">
         <v>71.03</v>
@@ -6238,7 +6238,7 @@
         <v>2.23</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.329999999999991</v>
+        <v>1.449999999999981</v>
       </c>
       <c r="AS12" t="n">
         <v>56.26</v>
@@ -6247,7 +6247,7 @@
         <v>-22.14</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="AV12" t="n">
         <v>10.01</v>
@@ -6256,7 +6256,7 @@
         <v>-4.48</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.14</v>
+        <v>0.3399999999999868</v>
       </c>
       <c r="AY12" t="n">
         <v>25.7</v>
@@ -6274,7 +6274,7 @@
         <v>0.31</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.1199999999999998</v>
+        <v>0.02000000000000041</v>
       </c>
       <c r="BE12" t="n">
         <v>4.67</v>
@@ -6283,7 +6283,7 @@
         <v>-5.13</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.870000000000001</v>
+        <v>0.2299999999999999</v>
       </c>
       <c r="BH12" t="n">
         <v>20.55</v>
@@ -6292,7 +6292,7 @@
         <v>4.92</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.94</v>
+        <v>0.5600000000000009</v>
       </c>
       <c r="BK12" t="n">
         <v>30.75</v>
@@ -6319,7 +6319,7 @@
         <v>18.07</v>
       </c>
       <c r="BS12" t="n">
-        <v>34.03999999999999</v>
+        <v>2.499999999999849</v>
       </c>
       <c r="BT12" t="n">
         <v>359.54</v>
@@ -6328,7 +6328,7 @@
         <v>16.52</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.069999999999997</v>
+        <v>0.1899999999999433</v>
       </c>
       <c r="BW12" t="n">
         <v>74.20999999999999</v>
@@ -6346,7 +6346,7 @@
         <v>-3.4</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.95</v>
+        <v>0.0400000000000027</v>
       </c>
       <c r="CC12" t="n">
         <v>14.85</v>
@@ -6355,7 +6355,7 @@
         <v>-2.93</v>
       </c>
       <c r="CE12" t="n">
-        <v>6.779999999999999</v>
+        <v>4.469999999999982</v>
       </c>
       <c r="CF12" t="n">
         <v>58.83</v>
@@ -6364,7 +6364,7 @@
         <v>0.24</v>
       </c>
       <c r="CH12" t="n">
-        <v>6.539999999999996</v>
+        <v>0.779999999999982</v>
       </c>
       <c r="CI12" t="n">
         <v>29.54</v>
@@ -6373,7 +6373,7 @@
         <v>-42.46</v>
       </c>
       <c r="CK12" t="n">
-        <v>4.550000000000001</v>
+        <v>1.950000000000042</v>
       </c>
       <c r="CL12" t="n">
         <v>101.58</v>
@@ -6382,7 +6382,7 @@
         <v>-7.58</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.44</v>
+        <v>0.5399999999999874</v>
       </c>
       <c r="CO12" t="n">
         <v>11.42</v>
@@ -6391,7 +6391,7 @@
         <v>14.34</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.650000000000002</v>
+        <v>2.490000000000006</v>
       </c>
       <c r="CR12" t="n">
         <v>48.78</v>
@@ -6418,7 +6418,7 @@
         <v>-9.140000000000001</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.5199999999999997</v>
+        <v>0.009999999999998226</v>
       </c>
       <c r="DA12" t="n">
         <v>7.82</v>
@@ -6427,7 +6427,7 @@
         <v>6.59</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.350000000000001</v>
+        <v>0.210000000000004</v>
       </c>
       <c r="DD12" t="n">
         <v>25.94</v>
@@ -6436,7 +6436,7 @@
         <v>0.29</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.289999999999996</v>
+        <v>0.5399999999999889</v>
       </c>
       <c r="DG12" t="n">
         <v>60.23</v>
@@ -6445,7 +6445,7 @@
         <v>-2.91</v>
       </c>
       <c r="DI12" t="n">
-        <v>2.180000000000001</v>
+        <v>0.09999999999999676</v>
       </c>
       <c r="DJ12" t="n">
         <v>32.62</v>
@@ -6463,7 +6463,7 @@
         <v>-9.94</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.01999999999999842</v>
       </c>
       <c r="DP12" t="n">
         <v>4.18</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.56</v>
+        <v>0.530000000000018</v>
       </c>
       <c r="C13" t="n">
         <v>5.76</v>
@@ -6608,7 +6608,7 @@
         <v>-1.98</v>
       </c>
       <c r="E13" t="n">
-        <v>9.369999999999999</v>
+        <v>3.049999999999997</v>
       </c>
       <c r="F13" t="n">
         <v>14.19</v>
@@ -6617,7 +6617,7 @@
         <v>-2.17</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8100000000000003</v>
+        <v>0.1300000000000242</v>
       </c>
       <c r="I13" t="n">
         <v>1.38</v>
@@ -6626,7 +6626,7 @@
         <v>-1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -6644,7 +6644,7 @@
         <v>87.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.2</v>
+        <v>0.1699999999999697</v>
       </c>
       <c r="R13" t="n">
         <v>20.48</v>
@@ -6653,7 +6653,7 @@
         <v>-3.81</v>
       </c>
       <c r="T13" t="n">
-        <v>1.029999999999999</v>
+        <v>0.5699999999999887</v>
       </c>
       <c r="U13" t="n">
         <v>3.62</v>
@@ -6662,7 +6662,7 @@
         <v>-27.54</v>
       </c>
       <c r="W13" t="n">
-        <v>3.64</v>
+        <v>0.4699999999999962</v>
       </c>
       <c r="X13" t="n">
         <v>7.05</v>
@@ -6671,7 +6671,7 @@
         <v>5.46</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.1099999999999974</v>
       </c>
       <c r="AA13" t="n">
         <v>1.67</v>
@@ -6680,7 +6680,7 @@
         <v>-1.03</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.17</v>
+        <v>0.08999999999999408</v>
       </c>
       <c r="AD13" t="n">
         <v>4.36</v>
@@ -6689,7 +6689,7 @@
         <v>-2.98</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.51</v>
+        <v>0.1300000000000006</v>
       </c>
       <c r="AG13" t="n">
         <v>0.79</v>
@@ -6698,7 +6698,7 @@
         <v>2.18</v>
       </c>
       <c r="AI13" t="n">
-        <v>159.34</v>
+        <v>5.449999999999987</v>
       </c>
       <c r="AJ13" t="n">
         <v>279.15</v>
@@ -6707,7 +6707,7 @@
         <v>-1.83</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.53</v>
+        <v>0.0499999999999996</v>
       </c>
       <c r="AM13" t="n">
         <v>0.86</v>
@@ -6716,7 +6716,7 @@
         <v>9.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.23</v>
+        <v>3.530509218307998e-14</v>
       </c>
       <c r="AP13" t="n">
         <v>9.58</v>
@@ -6725,7 +6725,7 @@
         <v>2.49</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.889999999999999</v>
+        <v>0.5600000000000076</v>
       </c>
       <c r="AS13" t="n">
         <v>8.75</v>
@@ -6734,7 +6734,7 @@
         <v>-4.98</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.7500000000000002</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AV13" t="n">
         <v>1.49</v>
@@ -6743,7 +6743,7 @@
         <v>0.06</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.02</v>
+        <v>0.1400000000000068</v>
       </c>
       <c r="AY13" t="n">
         <v>3.48</v>
@@ -6752,7 +6752,7 @@
         <v>-2.14</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.12</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="BB13" t="n">
         <v>1.76</v>
@@ -6761,7 +6761,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.02000000000000071</v>
       </c>
       <c r="BE13" t="n">
         <v>0.61</v>
@@ -6770,7 +6770,7 @@
         <v>-5.88</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.71</v>
+        <v>0.359999999999996</v>
       </c>
       <c r="BH13" t="n">
         <v>3.23</v>
@@ -6779,7 +6779,7 @@
         <v>1.51</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.43</v>
+        <v>0.3099999999999981</v>
       </c>
       <c r="BK13" t="n">
         <v>5.51</v>
@@ -6788,7 +6788,7 @@
         <v>39.74</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="BN13" t="n">
         <v>0.65</v>
@@ -6797,7 +6797,7 @@
         <v>42.86</v>
       </c>
       <c r="BP13" t="n">
-        <v>4.27</v>
+        <v>1.059999999999999</v>
       </c>
       <c r="BQ13" t="n">
         <v>7.04</v>
@@ -6806,7 +6806,7 @@
         <v>13.92</v>
       </c>
       <c r="BS13" t="n">
-        <v>33.34999999999999</v>
+        <v>0.6300000000001802</v>
       </c>
       <c r="BT13" t="n">
         <v>53.6</v>
@@ -6815,7 +6815,7 @@
         <v>1.2</v>
       </c>
       <c r="BV13" t="n">
-        <v>5.420000000000002</v>
+        <v>0.7600000000000415</v>
       </c>
       <c r="BW13" t="n">
         <v>11.44</v>
@@ -6824,7 +6824,7 @@
         <v>-0.64</v>
       </c>
       <c r="BY13" t="n">
-        <v>6.680000000000001</v>
+        <v>0.4400000000000222</v>
       </c>
       <c r="BZ13" t="n">
         <v>10.64</v>
@@ -6833,7 +6833,7 @@
         <v>-3.31</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.26</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="CC13" t="n">
         <v>1.77</v>
@@ -6842,7 +6842,7 @@
         <v>-9.01</v>
       </c>
       <c r="CE13" t="n">
-        <v>6.040000000000001</v>
+        <v>1.210000000000004</v>
       </c>
       <c r="CF13" t="n">
         <v>10.13</v>
@@ -6851,7 +6851,7 @@
         <v>-4.12</v>
       </c>
       <c r="CH13" t="n">
-        <v>5.08</v>
+        <v>0.2000000000000082</v>
       </c>
       <c r="CI13" t="n">
         <v>6.58</v>
@@ -6860,7 +6860,7 @@
         <v>-19.73</v>
       </c>
       <c r="CK13" t="n">
-        <v>8.840000000000002</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="CL13" t="n">
         <v>14.29</v>
@@ -6869,7 +6869,7 @@
         <v>-2</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.9200000000000002</v>
+        <v>0.1700000000000066</v>
       </c>
       <c r="CO13" t="n">
         <v>2.03</v>
@@ -6887,7 +6887,7 @@
         <v>-3.35</v>
       </c>
       <c r="CT13" t="n">
-        <v>3.06</v>
+        <v>0.8200000000000121</v>
       </c>
       <c r="CU13" t="n">
         <v>5.35</v>
@@ -6896,7 +6896,7 @@
         <v>-7.23</v>
       </c>
       <c r="CW13" t="n">
-        <v>8.119999999999999</v>
+        <v>1.400000000000037</v>
       </c>
       <c r="CX13" t="n">
         <v>13.62</v>
@@ -6905,7 +6905,7 @@
         <v>-0.79</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.1300000000000015</v>
       </c>
       <c r="DA13" t="n">
         <v>0.9</v>
@@ -6914,7 +6914,7 @@
         <v>7.55</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.9</v>
+        <v>0.339999999999995</v>
       </c>
       <c r="DD13" t="n">
         <v>3.74</v>
@@ -6923,7 +6923,7 @@
         <v>-1.5</v>
       </c>
       <c r="DF13" t="n">
-        <v>4.73</v>
+        <v>0.8200000000000371</v>
       </c>
       <c r="DG13" t="n">
         <v>8.32</v>
@@ -6932,7 +6932,7 @@
         <v>-4.44</v>
       </c>
       <c r="DI13" t="n">
-        <v>2.529999999999999</v>
+        <v>0.3499999999999979</v>
       </c>
       <c r="DJ13" t="n">
         <v>5.08</v>
@@ -6950,7 +6950,7 @@
         <v>-10.03</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.07000000000000053</v>
       </c>
       <c r="DP13" t="n">
         <v>0.54</v>
@@ -7095,7 +7095,7 @@
         <v>3.3</v>
       </c>
       <c r="E14" t="n">
-        <v>8.330000000000002</v>
+        <v>2.230000000000008</v>
       </c>
       <c r="F14" t="n">
         <v>24.22</v>
@@ -7104,7 +7104,7 @@
         <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13</v>
+        <v>0.0499999999999971</v>
       </c>
       <c r="I14" t="n">
         <v>2.41</v>
@@ -7131,7 +7131,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.21999999999999</v>
+        <v>0.05000000000002031</v>
       </c>
       <c r="R14" t="n">
         <v>33.59</v>
@@ -7140,7 +7140,7 @@
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.250000000000002</v>
+        <v>0.2200000000000031</v>
       </c>
       <c r="U14" t="n">
         <v>5.98</v>
@@ -7149,7 +7149,7 @@
         <v>-0.7</v>
       </c>
       <c r="W14" t="n">
-        <v>3.59</v>
+        <v>2.180000000000012</v>
       </c>
       <c r="X14" t="n">
         <v>11.49</v>
@@ -7167,7 +7167,7 @@
         <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.3600000000000052</v>
       </c>
       <c r="AD14" t="n">
         <v>7.12</v>
@@ -7176,7 +7176,7 @@
         <v>6.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.1599999999999987</v>
       </c>
       <c r="AG14" t="n">
         <v>1.36</v>
@@ -7185,7 +7185,7 @@
         <v>6.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>152.39</v>
+        <v>128.23</v>
       </c>
       <c r="AJ14" t="n">
         <v>458.75</v>
@@ -7194,7 +7194,7 @@
         <v>3.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="AM14" t="n">
         <v>1.42</v>
@@ -7203,7 +7203,7 @@
         <v>7.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.33</v>
+        <v>0.5699999999999648</v>
       </c>
       <c r="AP14" t="n">
         <v>15.74</v>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.65</v>
+        <v>1.969999999999976</v>
       </c>
       <c r="AS14" t="n">
         <v>13.64</v>
@@ -7230,7 +7230,7 @@
         <v>0.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>2</v>
+        <v>0.09999999999999318</v>
       </c>
       <c r="AY14" t="n">
         <v>5.35</v>
@@ -7248,7 +7248,7 @@
         <v>4.3</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.07999999999999979</v>
       </c>
       <c r="BE14" t="n">
         <v>1.1</v>
@@ -7266,7 +7266,7 @@
         <v>0.1</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.340000000000002</v>
       </c>
       <c r="BK14" t="n">
         <v>8.119999999999999</v>
@@ -7275,7 +7275,7 @@
         <v>51.3</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.21</v>
+        <v>0.06999999999999998</v>
       </c>
       <c r="BN14" t="n">
         <v>0.93</v>
@@ -7284,7 +7284,7 @@
         <v>16.8</v>
       </c>
       <c r="BP14" t="n">
-        <v>3.470000000000001</v>
+        <v>0.2700000000000022</v>
       </c>
       <c r="BQ14" t="n">
         <v>15.41</v>
@@ -7293,7 +7293,7 @@
         <v>47.5</v>
       </c>
       <c r="BS14" t="n">
-        <v>29.69000000000001</v>
+        <v>8.31999999999997</v>
       </c>
       <c r="BT14" t="n">
         <v>92.63</v>
@@ -7311,7 +7311,7 @@
         <v>3.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>6.239999999999998</v>
+        <v>1.199999999999969</v>
       </c>
       <c r="BZ14" t="n">
         <v>17.95</v>
@@ -7320,7 +7320,7 @@
         <v>1.5</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.1</v>
+        <v>0.47</v>
       </c>
       <c r="CC14" t="n">
         <v>3.11</v>
@@ -7329,7 +7329,7 @@
         <v>-3.3</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.799999999999997</v>
+        <v>2.379999999999989</v>
       </c>
       <c r="CF14" t="n">
         <v>15.06</v>
@@ -7338,7 +7338,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="CH14" t="n">
-        <v>3.209999999999999</v>
+        <v>2.809999999999983</v>
       </c>
       <c r="CI14" t="n">
         <v>9.720000000000001</v>
@@ -7347,7 +7347,7 @@
         <v>-26.8</v>
       </c>
       <c r="CK14" t="n">
-        <v>8.079999999999998</v>
+        <v>2.469999999999997</v>
       </c>
       <c r="CL14" t="n">
         <v>22.85</v>
@@ -7374,7 +7374,7 @@
         <v>18.2</v>
       </c>
       <c r="CT14" t="n">
-        <v>2.869999999999999</v>
+        <v>0.1099999999999812</v>
       </c>
       <c r="CU14" t="n">
         <v>8.880000000000001</v>
@@ -7383,7 +7383,7 @@
         <v>0.6</v>
       </c>
       <c r="CW14" t="n">
-        <v>7.300000000000001</v>
+        <v>0.8599999999999923</v>
       </c>
       <c r="CX14" t="n">
         <v>21.69</v>
@@ -7392,7 +7392,7 @@
         <v>-0.7</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.55</v>
+        <v>0.1699999999999993</v>
       </c>
       <c r="DA14" t="n">
         <v>1.58</v>
@@ -7410,7 +7410,7 @@
         <v>4.8</v>
       </c>
       <c r="DF14" t="n">
-        <v>4.370000000000001</v>
+        <v>0.02999999999998204</v>
       </c>
       <c r="DG14" t="n">
         <v>13.86</v>
@@ -7437,7 +7437,7 @@
         <v>0.2</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.27</v>
+        <v>0.0199999999999998</v>
       </c>
       <c r="DP14" t="n">
         <v>0.98</v>
@@ -7591,7 +7591,7 @@
         <v>-1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.68</v>
+        <v>0.1800000000000033</v>
       </c>
       <c r="I15" t="n">
         <v>3.21</v>
@@ -7600,7 +7600,7 @@
         <v>-22.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08999999999999986</v>
+        <v>4.475586568020162e-16</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -7627,7 +7627,7 @@
         <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.209999999999999</v>
+        <v>0.2999999999999878</v>
       </c>
       <c r="U15" t="n">
         <v>8.31</v>
@@ -7645,7 +7645,7 @@
         <v>10.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.5499999999999994</v>
       </c>
       <c r="AA15" t="n">
         <v>3.78</v>
@@ -7708,7 +7708,7 @@
         <v>-2</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="AV15" t="n">
         <v>3.14</v>
@@ -7717,7 +7717,7 @@
         <v>-0.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.879999999999999</v>
+        <v>0.5199999999999989</v>
       </c>
       <c r="AY15" t="n">
         <v>7.29</v>
@@ -7744,7 +7744,7 @@
         <v>1.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.76</v>
+        <v>1.239999999999996</v>
       </c>
       <c r="BH15" t="n">
         <v>6.75</v>
@@ -7789,7 +7789,7 @@
         <v>7.7</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.469999999999999</v>
+        <v>0.1500000000000061</v>
       </c>
       <c r="BW15" t="n">
         <v>25.42</v>
@@ -7798,7 +7798,7 @@
         <v>12</v>
       </c>
       <c r="BY15" t="n">
-        <v>6.09</v>
+        <v>2.810000000000018</v>
       </c>
       <c r="BZ15" t="n">
         <v>24.5</v>
@@ -7843,7 +7843,7 @@
         <v>0.6</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.1900000000000006</v>
       </c>
       <c r="CO15" t="n">
         <v>4.31</v>
@@ -7861,7 +7861,7 @@
         <v>15.8</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.360000000000001</v>
+        <v>0.3200000000000265</v>
       </c>
       <c r="CU15" t="n">
         <v>12.39</v>
@@ -7870,7 +7870,7 @@
         <v>5.9</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.550000000000001</v>
+        <v>0.6900000000000086</v>
       </c>
       <c r="CX15" t="n">
         <v>29.02</v>
@@ -7879,7 +7879,7 @@
         <v>-0.4</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.52</v>
+        <v>0.1600000000000003</v>
       </c>
       <c r="DA15" t="n">
         <v>2.5</v>
@@ -7897,7 +7897,7 @@
         <v>10.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.5999999999999979</v>
+        <v>0.5700000000000158</v>
       </c>
       <c r="DG15" t="n">
         <v>18.72</v>
@@ -7906,7 +7906,7 @@
         <v>5.2</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.07999999999999785</v>
+        <v>0.07999999999998897</v>
       </c>
       <c r="DJ15" t="n">
         <v>10.6</v>
@@ -7924,7 +7924,7 @@
         <v>1.4</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.02999999999999997</v>
+        <v>0.01000000000000017</v>
       </c>
       <c r="DP15" t="n">
         <v>1.4</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3099999999999978</v>
+        <v>0.2699999999999969</v>
       </c>
       <c r="C16" t="n">
         <v>17.1</v>
@@ -8069,7 +8069,7 @@
         <v>2.3</v>
       </c>
       <c r="E16" t="n">
-        <v>9.710000000000001</v>
+        <v>4.030000000000009</v>
       </c>
       <c r="F16" t="n">
         <v>41.19</v>
@@ -8078,7 +8078,7 @@
         <v>-1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9299999999999997</v>
+        <v>0.1499999999999993</v>
       </c>
       <c r="I16" t="n">
         <v>4.13</v>
@@ -8087,7 +8087,7 @@
         <v>13.9</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2200000000000002</v>
+        <v>0.03999999999999956</v>
       </c>
       <c r="L16" t="n">
         <v>3.96</v>
@@ -8105,7 +8105,7 @@
         <v>62.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.01999999999996588</v>
       </c>
       <c r="R16" t="n">
         <v>58.64</v>
@@ -8114,7 +8114,7 @@
         <v>5.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>0.110000000000009</v>
       </c>
       <c r="U16" t="n">
         <v>10.64</v>
@@ -8123,7 +8123,7 @@
         <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04999999999999893</v>
+        <v>0.009999999999996231</v>
       </c>
       <c r="X16" t="n">
         <v>19.22</v>
@@ -8150,7 +8150,7 @@
         <v>6.6</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.3600000000000003</v>
+        <v>0.08000000000000029</v>
       </c>
       <c r="AG16" t="n">
         <v>2.42</v>
@@ -8168,7 +8168,7 @@
         <v>4.7</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.27</v>
+        <v>0.0199999999999998</v>
       </c>
       <c r="AM16" t="n">
         <v>2.29</v>
@@ -8177,7 +8177,7 @@
         <v>-3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.050000000000001</v>
+        <v>0.4399999999999997</v>
       </c>
       <c r="AP16" t="n">
         <v>27.84</v>
@@ -8213,7 +8213,7 @@
         <v>-1.9</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.0599999999999998</v>
       </c>
       <c r="BB16" t="n">
         <v>5.13</v>
@@ -8222,7 +8222,7 @@
         <v>7.8</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.1099999999999997</v>
+        <v>0.01999999999999961</v>
       </c>
       <c r="BE16" t="n">
         <v>1.81</v>
@@ -8240,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1.65</v>
+        <v>0.6500000000000037</v>
       </c>
       <c r="BK16" t="n">
         <v>13.53</v>
@@ -8258,7 +8258,7 @@
         <v>1.5</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.6899999999999995</v>
+        <v>0.1500000000000013</v>
       </c>
       <c r="BQ16" t="n">
         <v>24.17</v>
@@ -8267,7 +8267,7 @@
         <v>36.8</v>
       </c>
       <c r="BS16" t="n">
-        <v>6.379999999999978</v>
+        <v>6.340000000000014</v>
       </c>
       <c r="BT16" t="n">
         <v>155.88</v>
@@ -8276,7 +8276,7 @@
         <v>7</v>
       </c>
       <c r="BV16" t="n">
-        <v>6.830000000000002</v>
+        <v>2.929999999999996</v>
       </c>
       <c r="BW16" t="n">
         <v>32.01</v>
@@ -8294,7 +8294,7 @@
         <v>4.7</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.05000000000000027</v>
       </c>
       <c r="CC16" t="n">
         <v>5.48</v>
@@ -8303,7 +8303,7 @@
         <v>0.1</v>
       </c>
       <c r="CE16" t="n">
-        <v>3.920000000000002</v>
+        <v>1.75999999999999</v>
       </c>
       <c r="CF16" t="n">
         <v>27.04</v>
@@ -8312,7 +8312,7 @@
         <v>1.1</v>
       </c>
       <c r="CH16" t="n">
-        <v>2.889999999999997</v>
+        <v>1.329999999999993</v>
       </c>
       <c r="CI16" t="n">
         <v>16.67</v>
@@ -8321,7 +8321,7 @@
         <v>-21.6</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.3099999999999952</v>
+        <v>0.07999999999999122</v>
       </c>
       <c r="CL16" t="n">
         <v>40.99</v>
@@ -8330,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="CO16" t="n">
         <v>5.46</v>
@@ -8339,7 +8339,7 @@
         <v>9.5</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.280000000000001</v>
+        <v>1.840000000000009</v>
       </c>
       <c r="CR16" t="n">
         <v>21.75</v>
@@ -8348,7 +8348,7 @@
         <v>12.5</v>
       </c>
       <c r="CT16" t="n">
-        <v>3.469999999999999</v>
+        <v>0.3199999999999894</v>
       </c>
       <c r="CU16" t="n">
         <v>15.79</v>
@@ -8357,7 +8357,7 @@
         <v>-0.8</v>
       </c>
       <c r="CW16" t="n">
-        <v>8.399999999999999</v>
+        <v>3.059999999999987</v>
       </c>
       <c r="CX16" t="n">
         <v>37.26</v>
@@ -8375,7 +8375,7 @@
         <v>13.7</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.08999999999999897</v>
+        <v>0.04999999999999449</v>
       </c>
       <c r="DD16" t="n">
         <v>10.94</v>
@@ -8393,7 +8393,7 @@
         <v>3.6</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.390000000000001</v>
+        <v>2.070000000000024</v>
       </c>
       <c r="DJ16" t="n">
         <v>12.71</v>
@@ -8402,7 +8402,7 @@
         <v>-0.9</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.850000000000001</v>
+        <v>7.409999999999997</v>
       </c>
       <c r="DM16" t="n">
         <v>50.19</v>
@@ -8411,7 +8411,7 @@
         <v>1.6</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="DP16" t="n">
         <v>1.79</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.809999999999999</v>
+        <v>1.630000000000008</v>
       </c>
       <c r="C17" t="n">
         <v>21.19</v>
@@ -8556,7 +8556,7 @@
         <v>2.6</v>
       </c>
       <c r="E17" t="n">
-        <v>8.879999999999995</v>
+        <v>0.5899999999999928</v>
       </c>
       <c r="F17" t="n">
         <v>50.11</v>
@@ -8565,7 +8565,7 @@
         <v>-3</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1600000000000004</v>
+        <v>0.01000000000000109</v>
       </c>
       <c r="I17" t="n">
         <v>5.46</v>
@@ -8574,7 +8574,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="L17" t="n">
         <v>4.99</v>
@@ -8592,7 +8592,7 @@
         <v>47.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.499999999999989</v>
+        <v>0.6400000000000572</v>
       </c>
       <c r="R17" t="n">
         <v>71.84</v>
@@ -8610,7 +8610,7 @@
         <v>6.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.68</v>
+        <v>2.580000000000011</v>
       </c>
       <c r="X17" t="n">
         <v>23.34</v>
@@ -8619,7 +8619,7 @@
         <v>10.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.1099999999999995</v>
       </c>
       <c r="AA17" t="n">
         <v>5.88</v>
@@ -8628,7 +8628,7 @@
         <v>1.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.139999999999997</v>
+        <v>0.01999999999999422</v>
       </c>
       <c r="AD17" t="n">
         <v>16.01</v>
@@ -8646,7 +8646,7 @@
         <v>6.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>150.2900000000001</v>
+        <v>133.9299999999993</v>
       </c>
       <c r="AJ17" t="n">
         <v>986.88</v>
@@ -8655,7 +8655,7 @@
         <v>6.9</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.21</v>
+        <v>0.1500000000000006</v>
       </c>
       <c r="AM17" t="n">
         <v>2.83</v>
@@ -8664,7 +8664,7 @@
         <v>7.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.18</v>
+        <v>2.81</v>
       </c>
       <c r="AP17" t="n">
         <v>34.47</v>
@@ -8682,7 +8682,7 @@
         <v>4.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.4299999999999997</v>
       </c>
       <c r="AV17" t="n">
         <v>4.93</v>
@@ -8691,7 +8691,7 @@
         <v>1.9</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.98</v>
+        <v>1.379999999999992</v>
       </c>
       <c r="AY17" t="n">
         <v>11.49</v>
@@ -8700,7 +8700,7 @@
         <v>0.1</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.05</v>
+        <v>0.6800000000000006</v>
       </c>
       <c r="BB17" t="n">
         <v>6.27</v>
@@ -8709,7 +8709,7 @@
         <v>5.2</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.07000000000000145</v>
       </c>
       <c r="BE17" t="n">
         <v>2.2</v>
@@ -8718,7 +8718,7 @@
         <v>-6.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.6</v>
+        <v>0.8400000000000039</v>
       </c>
       <c r="BH17" t="n">
         <v>10.79</v>
@@ -8736,7 +8736,7 @@
         <v>37.7</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="BN17" t="n">
         <v>1.55</v>
@@ -8745,7 +8745,7 @@
         <v>2.7</v>
       </c>
       <c r="BP17" t="n">
-        <v>2.670000000000002</v>
+        <v>1.260000000000001</v>
       </c>
       <c r="BQ17" t="n">
         <v>28.01</v>
@@ -8754,7 +8754,7 @@
         <v>26.8</v>
       </c>
       <c r="BS17" t="n">
-        <v>27.31</v>
+        <v>1.85000000000003</v>
       </c>
       <c r="BT17" t="n">
         <v>197.87</v>
@@ -8763,7 +8763,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BV17" t="n">
-        <v>6.119999999999997</v>
+        <v>0.7599999999999945</v>
       </c>
       <c r="BW17" t="n">
         <v>41.38</v>
@@ -8772,7 +8772,7 @@
         <v>12.6</v>
       </c>
       <c r="BY17" t="n">
-        <v>6.280000000000001</v>
+        <v>0.5999999999999941</v>
       </c>
       <c r="BZ17" t="n">
         <v>39.96</v>
@@ -8781,7 +8781,7 @@
         <v>6.5</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.24</v>
+        <v>0.9799999999999998</v>
       </c>
       <c r="CC17" t="n">
         <v>6.82</v>
@@ -8799,7 +8799,7 @@
         <v>14.7</v>
       </c>
       <c r="CH17" t="n">
-        <v>2.850000000000001</v>
+        <v>0.190000000000015</v>
       </c>
       <c r="CI17" t="n">
         <v>19.84</v>
@@ -8808,7 +8808,7 @@
         <v>-17.8</v>
       </c>
       <c r="CK17" t="n">
-        <v>7.93</v>
+        <v>7.380000000000032</v>
       </c>
       <c r="CL17" t="n">
         <v>49.8</v>
@@ -8817,7 +8817,7 @@
         <v>2.8</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.4600000000000002</v>
+        <v>0.06000000000000016</v>
       </c>
       <c r="CO17" t="n">
         <v>6.58</v>
@@ -8844,7 +8844,7 @@
         <v>-0.2</v>
       </c>
       <c r="CW17" t="n">
-        <v>8.170000000000002</v>
+        <v>1.320000000000004</v>
       </c>
       <c r="CX17" t="n">
         <v>46.56</v>
@@ -8871,7 +8871,7 @@
         <v>27.7</v>
       </c>
       <c r="DF17" t="n">
-        <v>4.540000000000003</v>
+        <v>3.260000000000002</v>
       </c>
       <c r="DG17" t="n">
         <v>29.62</v>
@@ -8889,7 +8889,7 @@
         <v>3.3</v>
       </c>
       <c r="DL17" t="n">
-        <v>8.349999999999994</v>
+        <v>0.2199999999999953</v>
       </c>
       <c r="DM17" t="n">
         <v>64.31999999999999</v>
@@ -8898,7 +8898,7 @@
         <v>10.4</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="DP17" t="n">
         <v>2.17</v>
@@ -9043,7 +9043,7 @@
         <v>3.9</v>
       </c>
       <c r="E18" t="n">
-        <v>8.799999999999997</v>
+        <v>7.620000000000012</v>
       </c>
       <c r="F18" t="n">
         <v>58.35</v>
@@ -9052,7 +9052,7 @@
         <v>-3.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0.79</v>
+        <v>0.1499999999999985</v>
       </c>
       <c r="I18" t="n">
         <v>6.17</v>
@@ -9061,7 +9061,7 @@
         <v>9.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.2099999999999995</v>
       </c>
       <c r="L18" t="n">
         <v>5.8</v>
@@ -9079,7 +9079,7 @@
         <v>31.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.58</v>
+        <v>7.519999999999998</v>
       </c>
       <c r="R18" t="n">
         <v>83</v>
@@ -9088,7 +9088,7 @@
         <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.00999999999999978</v>
       </c>
       <c r="U18" t="n">
         <v>15.06</v>
@@ -9115,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.760000000000002</v>
+        <v>2.380000000000018</v>
       </c>
       <c r="AD18" t="n">
         <v>18.87</v>
@@ -9124,7 +9124,7 @@
         <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.1800000000000017</v>
       </c>
       <c r="AG18" t="n">
         <v>3.37</v>
@@ -9169,7 +9169,7 @@
         <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="AV18" t="n">
         <v>5.68</v>
@@ -9178,7 +9178,7 @@
         <v>0.2</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.809999999999999</v>
+        <v>0.130000000000003</v>
       </c>
       <c r="AY18" t="n">
         <v>13.34</v>
@@ -9196,7 +9196,7 @@
         <v>7.3</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.01999999999999982</v>
       </c>
       <c r="BE18" t="n">
         <v>2.52</v>
@@ -9214,7 +9214,7 @@
         <v>2.3</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2.669999999999999</v>
+        <v>0.9899999999999991</v>
       </c>
       <c r="BK18" t="n">
         <v>18.29</v>
@@ -9232,7 +9232,7 @@
         <v>-1.4</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.449999999999995</v>
+        <v>0.4699999999999918</v>
       </c>
       <c r="BQ18" t="n">
         <v>32.18</v>
@@ -9250,7 +9250,7 @@
         <v>10.8</v>
       </c>
       <c r="BV18" t="n">
-        <v>5.420000000000002</v>
+        <v>3.900000000000013</v>
       </c>
       <c r="BW18" t="n">
         <v>49.35</v>
@@ -9268,7 +9268,7 @@
         <v>6</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.129999999999999</v>
+        <v>0.04999999999999893</v>
       </c>
       <c r="CC18" t="n">
         <v>7.86</v>
@@ -9286,7 +9286,7 @@
         <v>12.8</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.4899999999999989</v>
+        <v>0.2999999999999839</v>
       </c>
       <c r="CI18" t="n">
         <v>23.01</v>
@@ -9295,7 +9295,7 @@
         <v>-14.8</v>
       </c>
       <c r="CK18" t="n">
-        <v>7.900000000000006</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="CL18" t="n">
         <v>58.83</v>
@@ -9304,7 +9304,7 @@
         <v>4.4</v>
       </c>
       <c r="CN18" t="n">
-        <v>1.04</v>
+        <v>0.05999999999999955</v>
       </c>
       <c r="CO18" t="n">
         <v>7.78</v>
@@ -9313,7 +9313,7 @@
         <v>15.9</v>
       </c>
       <c r="CQ18" t="n">
-        <v>4.170000000000002</v>
+        <v>0.7200000000000051</v>
       </c>
       <c r="CR18" t="n">
         <v>31.27</v>
@@ -9322,7 +9322,7 @@
         <v>15.6</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.179999999999989</v>
       </c>
       <c r="CU18" t="n">
         <v>23.01</v>
@@ -9340,7 +9340,7 @@
         <v>-1</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.08999999999999898</v>
       </c>
       <c r="DA18" t="n">
         <v>4.17</v>
@@ -9349,7 +9349,7 @@
         <v>4.2</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.02000000000000046</v>
       </c>
       <c r="DD18" t="n">
         <v>16.94</v>
@@ -9367,7 +9367,7 @@
         <v>3.7</v>
       </c>
       <c r="DI18" t="n">
-        <v>2.740000000000002</v>
+        <v>0.5400000000000138</v>
       </c>
       <c r="DJ18" t="n">
         <v>18.71</v>
@@ -9376,7 +9376,7 @@
         <v>3.1</v>
       </c>
       <c r="DL18" t="n">
-        <v>2.900000000000006</v>
+        <v>2.680000000000011</v>
       </c>
       <c r="DM18" t="n">
         <v>75.3</v>
@@ -9385,7 +9385,7 @@
         <v>13.1</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.03000000000000014</v>
       </c>
       <c r="DP18" t="n">
         <v>2.57</v>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.239999999999998</v>
+        <v>0.3099999999999926</v>
       </c>
       <c r="C19" t="n">
         <v>27.8</v>
@@ -9548,7 +9548,7 @@
         <v>7.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3600000000000003</v>
+        <v>0.1500000000000008</v>
       </c>
       <c r="L19" t="n">
         <v>6.49</v>
@@ -9557,7 +9557,7 @@
         <v>6.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O19" t="n">
         <v>0.03</v>
@@ -9575,7 +9575,7 @@
         <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4599999999999991</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="U19" t="n">
         <v>17.18</v>
@@ -9593,7 +9593,7 @@
         <v>12.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.04000000000000092</v>
       </c>
       <c r="AA19" t="n">
         <v>7.85</v>
@@ -9602,7 +9602,7 @@
         <v>2.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.710000000000001</v>
+        <v>0.08999999999999586</v>
       </c>
       <c r="AD19" t="n">
         <v>21.76</v>
@@ -9629,7 +9629,7 @@
         <v>5.6</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4300000000000002</v>
+        <v>0.230000000000001</v>
       </c>
       <c r="AM19" t="n">
         <v>3.83</v>
@@ -9638,7 +9638,7 @@
         <v>4.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.9000000000000137</v>
+        <v>0.06000000000004221</v>
       </c>
       <c r="AP19" t="n">
         <v>46.13</v>
@@ -9647,7 +9647,7 @@
         <v>3.9</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.2399999999999949</v>
+        <v>0.1999999999999745</v>
       </c>
       <c r="AS19" t="n">
         <v>38.82</v>
@@ -9665,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.2400000000000022</v>
+        <v>0.1099999999999992</v>
       </c>
       <c r="AY19" t="n">
         <v>15.17</v>
@@ -9674,7 +9674,7 @@
         <v>-0.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.030000000000001</v>
+        <v>0.8300000000000007</v>
       </c>
       <c r="BB19" t="n">
         <v>8.609999999999999</v>
@@ -9683,7 +9683,7 @@
         <v>6.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="BE19" t="n">
         <v>2.81</v>
@@ -9692,7 +9692,7 @@
         <v>-3.3</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="BH19" t="n">
         <v>14</v>
@@ -9701,7 +9701,7 @@
         <v>1.7</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.900000000000002</v>
+        <v>0.2300000000000031</v>
       </c>
       <c r="BK19" t="n">
         <v>20.44</v>
@@ -9710,7 +9710,7 @@
         <v>12.1</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.05999999999999983</v>
       </c>
       <c r="BN19" t="n">
         <v>1.97</v>
@@ -9719,7 +9719,7 @@
         <v>-2.3</v>
       </c>
       <c r="BP19" t="n">
-        <v>4.860000000000003</v>
+        <v>1.470000000000024</v>
       </c>
       <c r="BQ19" t="n">
         <v>35.88</v>
@@ -9737,7 +9737,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="BV19" t="n">
-        <v>4.670000000000002</v>
+        <v>0.009999999999994458</v>
       </c>
       <c r="BW19" t="n">
         <v>57.78</v>
@@ -9746,7 +9746,7 @@
         <v>6.2</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.190000000000012</v>
       </c>
       <c r="BZ19" t="n">
         <v>52.87</v>
@@ -9755,7 +9755,7 @@
         <v>5.1</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.3400000000000021</v>
+        <v>0.2900000000000031</v>
       </c>
       <c r="CC19" t="n">
         <v>9.17</v>
@@ -9764,7 +9764,7 @@
         <v>0.7</v>
       </c>
       <c r="CE19" t="n">
-        <v>5.620000000000005</v>
+        <v>2.179999999999993</v>
       </c>
       <c r="CF19" t="n">
         <v>45.64</v>
@@ -9773,7 +9773,7 @@
         <v>10.5</v>
       </c>
       <c r="CH19" t="n">
-        <v>2.73</v>
+        <v>0.770000000000004</v>
       </c>
       <c r="CI19" t="n">
         <v>26.61</v>
@@ -9782,7 +9782,7 @@
         <v>-12.3</v>
       </c>
       <c r="CK19" t="n">
-        <v>1.319999999999993</v>
+        <v>0.7599999999999927</v>
       </c>
       <c r="CL19" t="n">
         <v>67.53</v>
@@ -9809,7 +9809,7 @@
         <v>13.2</v>
       </c>
       <c r="CT19" t="n">
-        <v>3.149999999999999</v>
+        <v>1.350000000000024</v>
       </c>
       <c r="CU19" t="n">
         <v>26.46</v>
@@ -9818,7 +9818,7 @@
         <v>-3.5</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.4200000000000159</v>
       </c>
       <c r="CX19" t="n">
         <v>61.95</v>
@@ -9836,7 +9836,7 @@
         <v>4.2</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.3099999999999978</v>
+        <v>0.07999999999999648</v>
       </c>
       <c r="DD19" t="n">
         <v>19.2</v>
@@ -9845,7 +9845,7 @@
         <v>21.3</v>
       </c>
       <c r="DF19" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.2200000000000202</v>
       </c>
       <c r="DG19" t="n">
         <v>38.72</v>
@@ -9863,7 +9863,7 @@
         <v>-0.3</v>
       </c>
       <c r="DL19" t="n">
-        <v>10.64</v>
+        <v>1.939999999999983</v>
       </c>
       <c r="DM19" t="n">
         <v>86.13</v>
@@ -9872,7 +9872,7 @@
         <v>10.6</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.01999999999999968</v>
       </c>
       <c r="DP19" t="n">
         <v>2.95</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.080000000000002</v>
+        <v>0.2900000000000136</v>
       </c>
       <c r="C20" t="n">
         <v>32.11</v>
@@ -10017,7 +10017,7 @@
         <v>3.7</v>
       </c>
       <c r="E20" t="n">
-        <v>7.719999999999999</v>
+        <v>4.199999999999961</v>
       </c>
       <c r="F20" t="n">
         <v>76.65000000000001</v>
@@ -10026,7 +10026,7 @@
         <v>-3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="I20" t="n">
         <v>8.08</v>
@@ -10035,7 +10035,7 @@
         <v>7.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.02999999999999889</v>
       </c>
       <c r="L20" t="n">
         <v>7.49</v>
@@ -10044,7 +10044,7 @@
         <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999997</v>
       </c>
       <c r="O20" t="n">
         <v>0.04</v>
@@ -10062,7 +10062,7 @@
         <v>0.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="U20" t="n">
         <v>20.11</v>
@@ -10071,7 +10071,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="W20" t="n">
-        <v>3.930000000000003</v>
+        <v>2.849999999999991</v>
       </c>
       <c r="X20" t="n">
         <v>35.11</v>
@@ -10080,7 +10080,7 @@
         <v>11.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.9399999999999995</v>
+        <v>0.6799999999999979</v>
       </c>
       <c r="AA20" t="n">
         <v>8.81</v>
@@ -10089,7 +10089,7 @@
         <v>0.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2299999999999973</v>
+        <v>0.05000000000000554</v>
       </c>
       <c r="AD20" t="n">
         <v>24.51</v>
@@ -10107,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>153.75</v>
+        <v>136.6299999999992</v>
       </c>
       <c r="AJ20" t="n">
         <v>1489.94</v>
@@ -10125,7 +10125,7 @@
         <v>6.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.019999999999989</v>
+        <v>0.1199999999999752</v>
       </c>
       <c r="AP20" t="n">
         <v>52.16</v>
@@ -10134,7 +10134,7 @@
         <v>2.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.04000000000000617</v>
       </c>
       <c r="AS20" t="n">
         <v>43.57</v>
@@ -10143,7 +10143,7 @@
         <v>5.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.2399999999999993</v>
+        <v>0.2399999999999957</v>
       </c>
       <c r="AV20" t="n">
         <v>7.49</v>
@@ -10152,7 +10152,7 @@
         <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.509999999999998</v>
+        <v>0.5499999999999896</v>
       </c>
       <c r="AY20" t="n">
         <v>17.39</v>
@@ -10179,7 +10179,7 @@
         <v>-2.1</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.640000000000001</v>
+        <v>1.310000000000001</v>
       </c>
       <c r="BH20" t="n">
         <v>15.58</v>
@@ -10188,7 +10188,7 @@
         <v>-0.7</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.769999999999996</v>
+        <v>0.07999999999998669</v>
       </c>
       <c r="BK20" t="n">
         <v>22.65</v>
@@ -10197,7 +10197,7 @@
         <v>7.2</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.27</v>
+        <v>4.996003610813204e-16</v>
       </c>
       <c r="BN20" t="n">
         <v>2.27</v>
@@ -10206,7 +10206,7 @@
         <v>-4.6</v>
       </c>
       <c r="BP20" t="n">
-        <v>3.32</v>
+        <v>0.9099999999999917</v>
       </c>
       <c r="BQ20" t="n">
         <v>41.15</v>
@@ -10215,7 +10215,7 @@
         <v>18.5</v>
       </c>
       <c r="BS20" t="n">
-        <v>24.18000000000001</v>
+        <v>8.500000000000036</v>
       </c>
       <c r="BT20" t="n">
         <v>304.02</v>
@@ -10233,7 +10233,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY20" t="n">
-        <v>6.530000000000001</v>
+        <v>5.559999999999959</v>
       </c>
       <c r="BZ20" t="n">
         <v>58.59</v>
@@ -10242,7 +10242,7 @@
         <v>2.4</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.119999999999999</v>
+        <v>0.09999999999999271</v>
       </c>
       <c r="CC20" t="n">
         <v>10.67</v>
@@ -10260,7 +10260,7 @@
         <v>6.7</v>
       </c>
       <c r="CH20" t="n">
-        <v>2.510000000000002</v>
+        <v>0.2700000000000009</v>
       </c>
       <c r="CI20" t="n">
         <v>29</v>
@@ -10269,7 +10269,7 @@
         <v>-12.3</v>
       </c>
       <c r="CK20" t="n">
-        <v>8.939999999999998</v>
+        <v>3.940000000000026</v>
       </c>
       <c r="CL20" t="n">
         <v>76.78</v>
@@ -10278,7 +10278,7 @@
         <v>4.5</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.08000000000000207</v>
+        <v>0.01000000000000312</v>
       </c>
       <c r="CO20" t="n">
         <v>10.43</v>
@@ -10287,7 +10287,7 @@
         <v>17.8</v>
       </c>
       <c r="CQ20" t="n">
-        <v>4.189999999999998</v>
+        <v>2.27000000000001</v>
       </c>
       <c r="CR20" t="n">
         <v>39.7</v>
@@ -10305,7 +10305,7 @@
         <v>-2.3</v>
       </c>
       <c r="CW20" t="n">
-        <v>7.159999999999997</v>
+        <v>4.979999999999961</v>
       </c>
       <c r="CX20" t="n">
         <v>70.54000000000001</v>
@@ -10323,7 +10323,7 @@
         <v>5.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>1.580000000000002</v>
+        <v>0.8600000000000116</v>
       </c>
       <c r="DD20" t="n">
         <v>21.48</v>
@@ -10332,7 +10332,7 @@
         <v>17.2</v>
       </c>
       <c r="DF20" t="n">
-        <v>4.190000000000005</v>
+        <v>1.809999999999975</v>
       </c>
       <c r="DG20" t="n">
         <v>44.47</v>
@@ -10341,7 +10341,7 @@
         <v>3.9</v>
       </c>
       <c r="DI20" t="n">
-        <v>2.450000000000003</v>
+        <v>1.730000000000019</v>
       </c>
       <c r="DJ20" t="n">
         <v>23.67</v>
@@ -10350,7 +10350,7 @@
         <v>-0.6</v>
       </c>
       <c r="DL20" t="n">
-        <v>9.650000000000006</v>
+        <v>1.910000000000011</v>
       </c>
       <c r="DM20" t="n">
         <v>96.22</v>
@@ -10359,7 +10359,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.3399999999999999</v>
+        <v>0.05000000000000018</v>
       </c>
       <c r="DP20" t="n">
         <v>3.31</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.829999999999998</v>
+        <v>0.07999999999998586</v>
       </c>
       <c r="C21" t="n">
         <v>35.36</v>
@@ -10522,7 +10522,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="L21" t="n">
         <v>8.41</v>
@@ -10531,7 +10531,7 @@
         <v>1.99</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O21" t="n">
         <v>0.05</v>
@@ -10540,7 +10540,7 @@
         <v>13.28</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.570000000000007</v>
+        <v>8.610000000000085</v>
       </c>
       <c r="R21" t="n">
         <v>119.04</v>
@@ -10549,7 +10549,7 @@
         <v>0.49</v>
       </c>
       <c r="T21" t="n">
-        <v>0.859999999999999</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="U21" t="n">
         <v>22.05</v>
@@ -10576,7 +10576,7 @@
         <v>3.26</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.41</v>
+        <v>1.580000000000008</v>
       </c>
       <c r="AD21" t="n">
         <v>27.97</v>
@@ -10585,7 +10585,7 @@
         <v>8.06</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.2100000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>4.87</v>
@@ -10594,7 +10594,7 @@
         <v>4.44</v>
       </c>
       <c r="AI21" t="n">
-        <v>145.02</v>
+        <v>4.11000000000061</v>
       </c>
       <c r="AJ21" t="n">
         <v>1656.86</v>
@@ -10603,7 +10603,7 @@
         <v>5.35</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.4799999999999995</v>
+        <v>0.0400000000000003</v>
       </c>
       <c r="AM21" t="n">
         <v>5.13</v>
@@ -10612,7 +10612,7 @@
         <v>10.92</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.600000000000001</v>
+        <v>5.220000000000088</v>
       </c>
       <c r="AP21" t="n">
         <v>58.8</v>
@@ -10621,7 +10621,7 @@
         <v>1.38</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.350000000000001</v>
+        <v>2.949999999999982</v>
       </c>
       <c r="AS21" t="n">
         <v>48.97</v>
@@ -10630,7 +10630,7 @@
         <v>5.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.6800000000000006</v>
+        <v>0.2000000000000029</v>
       </c>
       <c r="AV21" t="n">
         <v>8.44</v>
@@ -10648,7 +10648,7 @@
         <v>4.51</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.02</v>
+        <v>0.3000000000000073</v>
       </c>
       <c r="BB21" t="n">
         <v>11.35</v>
@@ -10675,7 +10675,7 @@
         <v>0.6</v>
       </c>
       <c r="BJ21" t="n">
-        <v>2.490000000000002</v>
+        <v>0.1000000000000272</v>
       </c>
       <c r="BK21" t="n">
         <v>23.9</v>
@@ -10684,7 +10684,7 @@
         <v>-3.66</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.23</v>
+        <v>0.0599999999999993</v>
       </c>
       <c r="BN21" t="n">
         <v>2.44</v>
@@ -10711,7 +10711,7 @@
         <v>11.06</v>
       </c>
       <c r="BV21" t="n">
-        <v>5.129999999999995</v>
+        <v>0.7300000000000018</v>
       </c>
       <c r="BW21" t="n">
         <v>71.8</v>
@@ -10738,7 +10738,7 @@
         <v>1.9</v>
       </c>
       <c r="CE21" t="n">
-        <v>4.32</v>
+        <v>3.440000000000037</v>
       </c>
       <c r="CF21" t="n">
         <v>56.09</v>
@@ -10747,7 +10747,7 @@
         <v>6.31</v>
       </c>
       <c r="CH21" t="n">
-        <v>2.789999999999999</v>
+        <v>0.009999999999996179</v>
       </c>
       <c r="CI21" t="n">
         <v>32.45</v>
@@ -10756,7 +10756,7 @@
         <v>-15.29</v>
       </c>
       <c r="CK21" t="n">
-        <v>8.289999999999992</v>
+        <v>0.6699999999999866</v>
       </c>
       <c r="CL21" t="n">
         <v>85.78</v>
@@ -10765,7 +10765,7 @@
         <v>4.08</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.9599999999999991</v>
+        <v>0.8499999999999877</v>
       </c>
       <c r="CO21" t="n">
         <v>11.92</v>
@@ -10774,7 +10774,7 @@
         <v>18.62</v>
       </c>
       <c r="CQ21" t="n">
-        <v>3.850000000000001</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="CR21" t="n">
         <v>43.98</v>
@@ -10783,7 +10783,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="CT21" t="n">
-        <v>1.810000000000002</v>
+        <v>0.340000000000003</v>
       </c>
       <c r="CU21" t="n">
         <v>33.73</v>
@@ -10801,7 +10801,7 @@
         <v>-0.68</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.09000000000000075</v>
+        <v>0.05000000000000161</v>
       </c>
       <c r="DA21" t="n">
         <v>6.39</v>
@@ -10837,7 +10837,7 @@
         <v>1.11</v>
       </c>
       <c r="DL21" t="n">
-        <v>6.959999999999994</v>
+        <v>3.139999999999972</v>
       </c>
       <c r="DM21" t="n">
         <v>106.37</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.18</v>
+        <v>1.11000000000002</v>
       </c>
       <c r="C22" t="n">
         <v>38.15</v>
@@ -10991,7 +10991,7 @@
         <v>3.49</v>
       </c>
       <c r="E22" t="n">
-        <v>7.959999999999994</v>
+        <v>3.799999999999968</v>
       </c>
       <c r="F22" t="n">
         <v>91.18000000000001</v>
@@ -11000,7 +11000,7 @@
         <v>-4.53</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8699999999999992</v>
+        <v>0.2299999999999987</v>
       </c>
       <c r="I22" t="n">
         <v>9.91</v>
@@ -11009,7 +11009,7 @@
         <v>6.58</v>
       </c>
       <c r="K22" t="n">
-        <v>1.400000000000002</v>
+        <v>0.7800000000000051</v>
       </c>
       <c r="L22" t="n">
         <v>9.300000000000001</v>
@@ -11018,7 +11018,7 @@
         <v>9.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="O22" t="n">
         <v>0.05</v>
@@ -11036,7 +11036,7 @@
         <v>1.87</v>
       </c>
       <c r="T22" t="n">
-        <v>2.039999999999999</v>
+        <v>0.1100000000000037</v>
       </c>
       <c r="U22" t="n">
         <v>24</v>
@@ -11054,7 +11054,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.08000000000000007</v>
+        <v>0.01999999999999957</v>
       </c>
       <c r="AA22" t="n">
         <v>10.66</v>
@@ -11072,7 +11072,7 @@
         <v>5.16</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.2799999999999994</v>
+        <v>0.02999999999999931</v>
       </c>
       <c r="AG22" t="n">
         <v>5.43</v>
@@ -11090,7 +11090,7 @@
         <v>5.39</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.330000000000001</v>
+        <v>0.07000000000000112</v>
       </c>
       <c r="AM22" t="n">
         <v>5.36</v>
@@ -11117,7 +11117,7 @@
         <v>6.19</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.4199999999999995</v>
+        <v>0.01999999999999369</v>
       </c>
       <c r="AV22" t="n">
         <v>9.26</v>
@@ -11126,7 +11126,7 @@
         <v>7.34</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.859999999999999</v>
+        <v>0.109999999999987</v>
       </c>
       <c r="AY22" t="n">
         <v>21.66</v>
@@ -11144,7 +11144,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.1000000000000017</v>
       </c>
       <c r="BE22" t="n">
         <v>3.75</v>
@@ -11153,7 +11153,7 @@
         <v>-0.48</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.3099999999999981</v>
+        <v>0.1500000000000025</v>
       </c>
       <c r="BH22" t="n">
         <v>18.81</v>
@@ -11171,7 +11171,7 @@
         <v>-3.46</v>
       </c>
       <c r="BM22" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="BN22" t="n">
         <v>2.86</v>
@@ -11180,7 +11180,7 @@
         <v>-0.77</v>
       </c>
       <c r="BP22" t="n">
-        <v>3.219999999999999</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="BQ22" t="n">
         <v>49.78</v>
@@ -11189,7 +11189,7 @@
         <v>18.34</v>
       </c>
       <c r="BS22" t="n">
-        <v>14.94000000000005</v>
+        <v>6.980000000000253</v>
       </c>
       <c r="BT22" t="n">
         <v>364.93</v>
@@ -11198,7 +11198,7 @@
         <v>10.72</v>
       </c>
       <c r="BV22" t="n">
-        <v>4.830000000000013</v>
+        <v>0.4400000000000113</v>
       </c>
       <c r="BW22" t="n">
         <v>78.37</v>
@@ -11207,7 +11207,7 @@
         <v>10.28</v>
       </c>
       <c r="BY22" t="n">
-        <v>5.659999999999997</v>
+        <v>3.979999999999989</v>
       </c>
       <c r="BZ22" t="n">
         <v>71.45</v>
@@ -11216,7 +11216,7 @@
         <v>1.1</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.4400000000000011</v>
+        <v>0.2399999999999974</v>
       </c>
       <c r="CC22" t="n">
         <v>13.02</v>
@@ -11234,7 +11234,7 @@
         <v>6.25</v>
       </c>
       <c r="CH22" t="n">
-        <v>29.01</v>
+        <v>25.65000000000001</v>
       </c>
       <c r="CI22" t="n">
         <v>35.47</v>
@@ -11243,7 +11243,7 @@
         <v>-13.7</v>
       </c>
       <c r="CK22" t="n">
-        <v>1.690000000000012</v>
+        <v>0.3500000000000385</v>
       </c>
       <c r="CL22" t="n">
         <v>95.8</v>
@@ -11261,7 +11261,7 @@
         <v>20.24</v>
       </c>
       <c r="CQ22" t="n">
-        <v>2.509999999999998</v>
+        <v>2.229999999999998</v>
       </c>
       <c r="CR22" t="n">
         <v>48.67</v>
@@ -11270,7 +11270,7 @@
         <v>10.86</v>
       </c>
       <c r="CT22" t="n">
-        <v>1.170000000000002</v>
+        <v>0.1499999999999929</v>
       </c>
       <c r="CU22" t="n">
         <v>36.43</v>
@@ -11279,7 +11279,7 @@
         <v>3.15</v>
       </c>
       <c r="CW22" t="n">
-        <v>4.289999999999988</v>
+        <v>2.809999999999969</v>
       </c>
       <c r="CX22" t="n">
         <v>86.59999999999999</v>
@@ -11288,7 +11288,7 @@
         <v>0.34</v>
       </c>
       <c r="CZ22" t="n">
-        <v>1.349999999999999</v>
+        <v>1.049999999999995</v>
       </c>
       <c r="DA22" t="n">
         <v>7.08</v>
@@ -11297,7 +11297,7 @@
         <v>6.37</v>
       </c>
       <c r="DC22" t="n">
-        <v>1.670000000000002</v>
+        <v>0.2500000000000078</v>
       </c>
       <c r="DD22" t="n">
         <v>25.55</v>
@@ -11306,7 +11306,7 @@
         <v>15.06</v>
       </c>
       <c r="DF22" t="n">
-        <v>1.129999999999995</v>
+        <v>0.8900000000000146</v>
       </c>
       <c r="DG22" t="n">
         <v>54.46</v>
@@ -11315,7 +11315,7 @@
         <v>6.28</v>
       </c>
       <c r="DI22" t="n">
-        <v>2.699999999999999</v>
+        <v>1.320000000000004</v>
       </c>
       <c r="DJ22" t="n">
         <v>28.9</v>
@@ -11333,7 +11333,7 @@
         <v>10.6</v>
       </c>
       <c r="DO22" t="n">
-        <v>0.2499999999999991</v>
+        <v>0.1699999999999975</v>
       </c>
       <c r="DP22" t="n">
         <v>4.71</v>
